--- a/publipostage2/02ppyfa04/liste_essais_cliniques_identifies_02ppyfa04.xlsx
+++ b/publipostage2/02ppyfa04/liste_essais_cliniques_identifies_02ppyfa04.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/02ppyfa04/liste_essais_cliniques_identifies_02ppyfa04.xlsx
+++ b/publipostage2/02ppyfa04/liste_essais_cliniques_identifies_02ppyfa04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L124"/>
+  <dimension ref="A1:M124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,36 +513,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT01512277</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>1999</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Phase 1 Study Evaluating Safety and Immunological Criteria of Efficacy of the Recombinant Vaccine Candidate Bilhvax Against Schistosomiasis</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Bilhvax1a</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -556,32 +566,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT00367185</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2005</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Comparison of Melphalan-Prednisone(MP),MP-THALIDOMIDE,and Autologous Stem Cell Transplantation in the Treatment of Newly Diagnosed Elderly Patients With Multiple Myeloma.</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -600,36 +615,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT00682292</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Multicenter Randomized Study to Compare Induction Therapy With Polyclonal Antithymocytes Globulins (ATG) Versus Monoclonal Anti-IL2R Antibody (Daclizumab) in a Triple Drug Regimen in Renal Transplant Recipients With High Immunological Risk.</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>TAXI</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -648,28 +668,33 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT00122057</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -688,36 +713,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT02385565</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Effect Of The System In The Enriched Fat Metabolism Of The Child Reached Mitochondrial Cytopathy</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>MITOX</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -736,32 +766,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT00446264</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Sequential Islet Transplantation With Steroid Free Immunosuppression for Type 1 Diabetes</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="b">
         <v>1</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -780,32 +815,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT01082666</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Phase 4 Study of Continuous Control of Tracheal Cuff Pressure and Microaspiration in Critically Ill Patients</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -824,36 +864,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT01108029</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Study of Memantine to Treat Gait Disorders And Attention Deficit In Parkinson's Disease: A Randomized, Double-Blind, Placebo-Controlled, Parallel-Group, Monocentric Trial</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>FOGG-I</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -872,36 +917,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT01487590</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>A Simple Blind Controlled Randomized Trial: Cephalic Version by Acupuncture-moxibustion vs Placebo for Breech Presentation</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>ACUVERSE</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -920,36 +970,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT01214226</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Evaluation of the Survival Benefit of the Adjunction of Pentoxifylline to Corticosteroids in Patients Suffering From Severe Alcoholic Hepatitis</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>CorpentoxHAA</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
       <c r="J11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -968,36 +1023,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT00642980</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Randomized Multicenter Trial for the Prevention of Preterm Delivery by Testing for and Treatment of Bacterial Vaginosis in the First Trimester of Pregnancy</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>PREMEVA</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1016,36 +1076,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT00943748</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Efficacy and Safety of the Iron Chelator Deferiprone on Iron Overload in the Brain in Parkinson's Disease</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>FAIR-PARK-I</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
       <c r="J13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1062,38 +1127,43 @@
           <t>rouge</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2006-006944-78</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Evaluation du bénéfice de survie lors de l'adjonction de pentoxifylline à la corticothérapie dans l'hépatite alcoolique sévère</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>CorpentoxHAA</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1108,36 +1178,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT01351259</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Continuous Control of Polyurethane Tracheal-cuff Pressure: Efficiency of a Pneumatic Device</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Nosten</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1156,36 +1231,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT00914095</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Study of Methylphenidate to Treat Gait Disorders And Attention Deficit In Parkinson's Disease: A Randomized, Double-Blind, Placebo-Controlled, Parallel-Group, Multicentric Trial</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>PARKGAIT-II</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1202,38 +1282,43 @@
           <t>rouge</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2008-005801-20</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Etude d’efficacité et d’acceptabilité du méthylphénidate dans les troubles de la marche de la maladie de Parkinson : Etude multicentrique en double aveugle versus placebo.</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>PARGKAIT II</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1248,36 +1333,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT01679093</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Antagonism Research Between Antiemetics Agents (Droperidol, Dexametasone, Ondansetron) and Acetaminophen in Thyroidectomy's Post-operative Analgesia.</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>ANPATHY</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1296,36 +1386,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>NCT00767091</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>A Randomized, Double-blind, Placebo-controlled, Parallel-group, Multicentric Trial</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>CHoPA-I</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
       <c r="J19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>1</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1344,36 +1439,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>NCT00766519</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Effect of Intraoperative Volume Optimization on Outcome After Intrabdominal Surgery: a Multicenter, Randomized, Double-blind, Comparative Study</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>EVOLUTION</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1392,36 +1492,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>NCT01295736</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Evaluation of the Efficacy of Sildenafil on Time to Healing in Patients With Scleroderma and Ischaemic Digital Ulcers: a Prospective, Longitudinal, Randomized, Comparative, Double-blind, 2-parallel-arm, Placebo-controlled Study</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>SEDUCE</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
       <c r="J21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1440,36 +1545,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>NCT01279096</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>A Phase I Dose Escalation Study of Clofarabine Given in Combination With Multi-agent Therapy for Remission Induction in Pediatric Patients With Acute Lymphoblastic Leukemia in First Relapse or Refractory to First Line Therapy -</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>Vandevol</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1488,32 +1598,37 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>NCT01415219</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Efficacy of an Individual Rehabilitation Program in Polymyositis and Dermatomyositis</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1532,36 +1647,41 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>NCT01487395</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Effect of a 15-day Donepezil Treatment on Biomarkers of AD in Healthy Volunteers</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>PharmacogWP3</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1580,36 +1700,41 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>NCT00639964</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Exploration of the Lipid Metabolism During the Diabetic Pregnancies and Research for New Biological Predictors to Nutritional Interventions</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>DIAMANT</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
       <c r="J25" t="b">
         <v>0</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1628,36 +1753,41 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>NCT03164746</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Demonstration of the Effectiveness of Treatment by Therapeutic Body Wraps in Children and Adolescents Suffering From Autism Spectrum Disorder With Severe Injurious Behavior.</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>PACKING</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
       <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1676,32 +1806,37 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>NCT01341002</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Red Blood Cells (RBC) Transfusion Related to Central Venous O2 Saturation</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1720,36 +1855,41 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>NCT04354311</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Relationship Between the ANI Score During Standardized Painful Stimulation and the Nociceptive Response to Laryngoscopy Intubation</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>ANI_LARYNGO</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
       <c r="K28" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1768,36 +1908,41 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>NCT01965821</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Impact of Mallinckrodt Electronic Device on Continuous Control of Tracheal Cuff Pressure</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>RCPBALSTAT</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
       <c r="J29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="b">
         <v>1</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1816,36 +1961,41 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>NCT01123174</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Effectiveness of a "Case Management Algorithm" After a Suicide Attempt in Terms of Repetition of the Suicidal Behaviors and Medico-economic Impact</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>ALGOS</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
       <c r="K30" t="b">
-        <v>1</v>
-      </c>
-      <c r="L30" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1864,36 +2014,41 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>NCT03066362</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Respiratory Variations of the Inferior Vena Cava and Femoral Artery Flow to Predict Fluid Responsiveness in Spontaneously Breathing Patients With Sepsis, Acute Circulatory Failure, and Regular Cardiac Rhythm</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>ReVaPreF</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1912,32 +2067,37 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>NCT00937456</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Open vs Laparoscopically-assisted Esophagectomy for Cancer: A Multicentric Phase III Prospective Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="b">
-        <v>1</v>
-      </c>
-      <c r="L32" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1956,36 +2116,41 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>NCT01637441</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Randomized Study Comparing Laparoscopic Sacropexy and Vaginal Mesh Surgery in Cystocele Repair</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>PROSPERE</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2004,36 +2169,41 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>NCT03066375</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Diagnostic Accuracy of the Inferior Vena Cava Collapsibility to Predict Fluid Responsiveness in Spontaneously Breathing Patients With Sepsis, Acute Circulatory Failure, and Irregular Cardiac Rhythm</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>ReVaPreF2</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2052,36 +2222,41 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>NCT01641627</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Phase 2 Randomized Clinical Trial, Efficy of a Proprioceptive Stimulation Device in Term of Prevention of Muscle Atrophy of the Calf After Total Knee Replacement</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>PrevAtrophy</t>
         </is>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2100,36 +2275,41 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>NCT01745640</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>A Multicenter Open Label Phase II Study of Pomalidomide and Dexamethasone in Progressive Relapsed or Refractory Multiple Myeloma Patients With Deletion 17p or Translocation (4;14) Adverse Karyotypic Abnormalities-IFM2010-02</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>IFM2010-02</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
       <c r="J36" t="b">
         <v>1</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2148,36 +2328,41 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>NCT02844101</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Assess Whether Knowledge by the Children and Adolescents of the Function of the Accelerometer Determines Its Amount of Physical Activity</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>ACCELORIX2</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
       <c r="J37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="b">
         <v>1</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2196,36 +2381,41 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>NCT01713504</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Identification of New Markers in the Hypereosinophilic Syndrome</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>SHE</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2244,36 +2434,41 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>NCT01053949</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>A Multicenter Randomized Open Label Phase II Study of Pomalidomide and Dexamethasone in Relapse and Refractory Multiple Myeloma Patients Who Are Progressive and Did Not Achieve at Least a Partial Response to Bortezomib and Lenalidomide</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>IFM2009-02</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
       <c r="J39" t="b">
         <v>1</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2292,36 +2487,41 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>NCT01948635</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Impact of Tracheal Cuff Shape on Microaspiration in Intensive Care Units</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>BestCuff</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
       <c r="J40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="b">
         <v>1</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2340,36 +2540,41 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>NCT02662725</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>A Multicenter Phase II Study of Ipilimumab Combined With a Stereotactic Radiosurgery in Melanoma Patients With Brain Metastases</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>IPI+RTS</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -2388,36 +2593,41 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>NCT02250755</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Comparison of MRI Sequences T1 and T2 * Cerebral Perfusion to Aid in the Diagnosis and Evaluation of Brain Therapeutic Response With Chemotherapy or Targeted Therapy(s) Lesion(s) in Patients Treated and Followed for a Pulmonary Neoplasia</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>METAPERF</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
       <c r="J42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2436,36 +2646,41 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>NCT02164253</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Feasibility and Safety Pilot Therapeutic Study of the Iron Chelator Deferiprone in Amyotrophic Lateral Sclerosis</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>SAFEFAIRALS</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2484,32 +2699,37 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>NCT03751787</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Interest of Treatment With Cranial Osteopathy in Functional Disorders of the Newborn</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="b">
         <v>0</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2528,36 +2748,41 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>NCT02154178</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Fungal Biomarkers to Reduce Duration of Empirical Antifungal Therapy: a Randomized Comparative Study</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>STAFE</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
       <c r="J45" t="b">
         <v>1</v>
       </c>
       <c r="K45" t="b">
         <v>1</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L45" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2576,36 +2801,41 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>NCT04146675</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Pilot Study for the Evaluation of a T-shirt "Balance" Containing Ceramic Fibers</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>Equi-tee-shirt</t>
         </is>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2624,36 +2854,41 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>NCT00946959</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Characterization of Factors Influencing the Occurrence of Cognitive Decline in Patients With Coronary Artery Disease and Undergoing Cardiac Surgery and Coronary Angioplasty</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>COGCAR</t>
         </is>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
       <c r="J47" t="b">
         <v>0</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2672,32 +2907,37 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>NCT01622400</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Randomized Prospective Trial Evaluating the Efficacy of a Dedicated Therapeutic Education Program on the Blood Pressure and Other Cardiovascular Risk Factors Control in General Practice Patients at High Cardiovascular Risk</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="b">
         <v>0</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2716,32 +2956,37 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>NCT01123187</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Phase 2 Study of Islet Cell Transplantation in Patients With Type I Diabetes With Previous Kidney Transplantation With Steroid Free Immunosuppression</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="b">
         <v>1</v>
       </c>
       <c r="K49" t="b">
         <v>1</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L49" t="b">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2760,36 +3005,41 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>NCT02364908</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Prospective Evaluation of Adherence to Antimalarials in Patients With Systemic Lupus and Role of Therapeutic Education</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>ESSTIM</t>
         </is>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
       <c r="J50" t="b">
         <v>0</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2808,36 +3058,41 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>NCT02750150</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>A Randomized Trial to Evaluate Freezed-dried Plasma in the Initial Management of Coagulopathy in Trauma Patients</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>TrauCC</t>
         </is>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2856,36 +3111,41 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>NCT02242955</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Impact of a One-month Long Detoxification Diazepam Treatment on Early Alcohol Relapse</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>DIAMA</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2904,32 +3164,37 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>NCT02213302</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Effects of Premedication by Midazolam on Preoperative Anxiety for Emergency Surgery</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="b">
         <v>0</v>
       </c>
       <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L53" t="b">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2948,36 +3213,41 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>NCT03280290</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Partial Selective Depletion in Lymphocytes Transplant T CD4+ CCR7+ in Hematopoeitic Stem Cells Allograft</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>CCR7-CD4-DPL</t>
         </is>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
       <c r="J54" t="b">
         <v>0</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2996,36 +3266,41 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>NCT03286660</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Chair Rise Tests for a Simplified Evaluation of Functional Response After a Rehabilitation Program in Patients COPD.</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>3CRT</t>
         </is>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
       <c r="J55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="b">
         <v>1</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="L55" t="b">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -3044,36 +3319,41 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>NCT02905071</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Study of the Psychometric Properties of the Scale of Well-being at Work: The Serenat Study</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>SERENAT</t>
         </is>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
       <c r="J56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="b">
         <v>1</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L56" t="b">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3092,36 +3372,41 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>NCT02969733</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>The Interest of the Xylocaine® and Ketamine on the Per and Postoperative Management of Acute and Chronic Postoperative Pain After Colectomy by Laparoscopy</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>KETALIDO</t>
         </is>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3140,36 +3425,41 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>NCT01488214</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Assessment of Neuropsychiatric Involvement in Systemic Sclerosis.</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>NeuroScS</t>
         </is>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
       <c r="J58" t="b">
         <v>0</v>
       </c>
       <c r="K58" t="b">
-        <v>1</v>
-      </c>
-      <c r="L58" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L58" t="b">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3188,36 +3478,41 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>NCT03076892</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>A Phase II Study Evaluating the Non-inferiority and Better Tolerability of the Device PHOS-ISTOS Compared to the Conventional Photodynamic Therapy (PDT)</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>PHOS-ISTOS</t>
         </is>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
       <c r="J59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" t="b">
         <v>1</v>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L59" t="b">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3236,36 +3531,41 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>NCT03749304</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Monitoring Analgesia by ANI (Analgesia The Nociception Index) During Surgery Inflammatory Bowel</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>ANI-MICI</t>
         </is>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
       <c r="J60" t="b">
         <v>0</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3284,36 +3584,41 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>NCT02302469</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>A Multicenter Phase I/II Dose Escalation Study of Lenalidomide in Relapse/Refractory Waldenstrom Macroglobulinemia</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>RV-WM-0426</t>
         </is>
       </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
       <c r="J61" t="b">
         <v>1</v>
       </c>
       <c r="K61" t="b">
         <v>1</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L61" t="b">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3332,32 +3637,37 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>NCT02902016</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Modulation of Lactase Expression by a New Synthetic PPARgamma Ligand in Ex-vivo Cultures of Duodenal Biopsies</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="b">
         <v>0</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3376,32 +3686,37 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>NCT02193412</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Influence of Variations of Systemic Venous Return on Analgesia Nociception Index (ANI) During General Anaesthesia</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="b">
         <v>0</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3420,36 +3735,41 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>NCT02812901</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Morning / Afternoon Variation in Myocardial Ischemia Tolerance</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>TOMIS</t>
         </is>
       </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
       <c r="J64" t="b">
         <v>1</v>
       </c>
       <c r="K64" t="b">
         <v>1</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="L64" t="b">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3468,36 +3788,41 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>NCT03185403</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Comparison of the Hemodynamic Effect Between the Paravertebral Block and Thoracic Epidural in Esophageal Surgery With Thoracotomy .</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>HEMOBLOC</t>
         </is>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
       <c r="J65" t="b">
         <v>0</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3516,36 +3841,41 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>NCT02778178</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Analgesic Efficacy of Transversus Abdominis Plane (TAP) Block After Lumbar Spine Surgery Through Anterior Approach (Anterior Lumbar or Direct Lateral Interbody Fusion): a Prospective, Randomized, Double-blind Placebo-controlled Study</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>TAP-LIF</t>
         </is>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
       <c r="J66" t="b">
         <v>0</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="L66" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3564,32 +3894,37 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>NCT03509805</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Sleep Apnea Syndrome in Obese Women During Pregnancy</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="b">
         <v>0</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -3608,36 +3943,41 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>NCT03381456</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Task-dependent Operation of a Mechanism Intracortical Inhibition in Dystonia</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>LICIdystonie</t>
         </is>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
       <c r="J68" t="b">
         <v>0</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3654,38 +3994,43 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
         <is>
           <t>2012-000770-36</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Efficacité et tolérance du nilotinib chez les patients atteints d'une maladie chronique du greffon contre l’hôte (Graft Versus Host, GVH) n'ayant pas répondu à l'imatinib mésilate.</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>Double ITK-GVHc</t>
         </is>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
       <c r="J69" t="b">
         <v>0</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
       </c>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3700,36 +4045,41 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>NCT02891395</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Efficacy and Safety of Nilotinib in Patients With a Chronic Disease of the Graft Against the Host (Graft Versus Host, GVH) Did Not Respond to Imatinib Mesylate.</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>DoubleITK</t>
         </is>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
       <c r="J70" t="b">
         <v>0</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3748,36 +4098,41 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>NCT02662504</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Pilot Study of the Feasibility of Intrapleural Photodynamic Therapy in a Multimodal Treatment Combining Extended Pleurectomy/Decortication, Adjuvant Chemotherapy and Prophylactic Radiotherapy in Patients With Malignant Pleural Mesothelioma</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>MesoPDT</t>
         </is>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
       <c r="J71" t="b">
         <v>0</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3796,36 +4151,41 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>NCT02525705</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Frequency of Occurrence of Dumping Syndrome After Operation of Esophageal Atresia Type III</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>DUMPING</t>
         </is>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
       <c r="J72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" t="b">
         <v>1</v>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="L72" t="b">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -3844,36 +4204,41 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>NCT02272361</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Randomized Controlled Trial Comparing Laparoscopic Sacropexy and Vaginal Mesh Surgery for Women Cystocele Repair: Functional and Anatomical Results at Four Years Follow-up</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>PROSPERE4</t>
         </is>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
       <c r="J73" t="b">
         <v>0</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="L73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3892,32 +4257,37 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>NCT02881437</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Assessment of the IgG Trough Level in Subjects With Primary Immunodeficiency Switching From Standard Subcutaneous Immunoglobulin (SCIG) to Every Other Week HyQvia</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="b">
         <v>0</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3936,36 +4306,41 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>NCT02621775</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Effectiveness of Two Stress Management Programs in the Adaptation Disorder With Anxiety (ADA) : Computer-based or Face- to -Face to Face Versus Control Group.Open Multicenter Prospective Randomized Controlled Therapeutic 3 Parallel Groups</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>Seren@ctif</t>
         </is>
       </c>
-      <c r="I75" t="b">
-        <v>1</v>
-      </c>
       <c r="J75" t="b">
         <v>1</v>
       </c>
       <c r="K75" t="b">
         <v>1</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="L75" t="b">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -3984,36 +4359,41 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>NCT02281916</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>Safety Study of P28GST Treatment in Crohn's Disease Patients, a Multicenter Phase 2 Clinical Trial</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>ACROHNEM</t>
         </is>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
       <c r="J76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" t="b">
         <v>1</v>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="L76" t="b">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4032,36 +4412,41 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>NCT02702128</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Preventive EXACYL® on Perioperative Bleeding During Orthognathism of Maxillary Surgery</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>LEFORTEXACYL</t>
         </is>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
       <c r="J77" t="b">
         <v>0</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4080,36 +4465,41 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>NCT03980210</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>Effect of Hyperbaric Oxygen Therapy on Healthy Volunteers Microcirculation</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>MICROHB</t>
         </is>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
       <c r="J78" t="b">
         <v>0</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4128,36 +4518,41 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>NCT03158376</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>Perioperative Gabapentin for Chronic Post-thoracotomy Pain: a Randomized, Double Blind, Placebo-controlled Study.</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>GABATHOMIE</t>
         </is>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
       <c r="J79" t="b">
         <v>0</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4176,36 +4571,41 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>NCT03370627</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Effect of Monoclonal Anti-cd303 on the Inhibition of Type I Interferon Secretion in the Peripheral Blood of Patients With Autoimmune Diseases</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>ANTI-CD303</t>
         </is>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
       <c r="J80" t="b">
         <v>0</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="L80" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -4224,36 +4624,41 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>NCT02821169</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>Impact of Infiltration in the Region of the Palatine Ganglion Spheno by Ropivacaine on Postoperative Pain in the Setting of Endoscopic Sinonasal Surgery.</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>ROPI_POSTOP</t>
         </is>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
       <c r="J81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" t="b">
         <v>1</v>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="L81" t="b">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4272,36 +4677,41 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>NCT03342820</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>Impact of Muscular Fatigability on Spastic Co-contractions Between the Quadriceps and Hamstrings in Stroke Patients</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>COCON</t>
         </is>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
       <c r="J82" t="b">
         <v>0</v>
       </c>
       <c r="K82" t="b">
         <v>0</v>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4320,36 +4730,41 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>NCT03238430</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>Management of Pain Post Hepatectomy : Infiltration of Local Anesthetics Versus Continuous Spinal Analgesia .</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>CATHEPAT</t>
         </is>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
       <c r="J83" t="b">
         <v>0</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="L83" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4368,36 +4783,41 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>NCT02884557</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>Evaluation of the Expression of Natural Killer T Cells (NKT) Marker in the Gut of Patients With Primary Sclerosing Cholangitis (PSC) Complicated by an Inflammatory Bowel Disease (IBD)</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>NKT-CSP/MICI</t>
         </is>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
       <c r="J84" t="b">
         <v>0</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="L84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4416,36 +4836,41 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>NCT03565822</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Qualitative Study of the Impact of the Birth of a Child With a Rare Abdomino-thoracic Malformation on the Parental Adjustment of the First Year</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>INEMAT</t>
         </is>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
       <c r="J85" t="b">
         <v>0</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="L85" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4464,36 +4889,41 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>NCT03232697</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>French Language Validation of the Phone Version of the Montreal Cognitive Assessment (MoCA)</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>MoCATEL</t>
         </is>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
       <c r="J86" t="b">
         <v>0</v>
       </c>
       <c r="K86" t="b">
         <v>0</v>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="L86" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -4512,36 +4942,41 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>NCT01756794</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>Validation of an Accelerated Procedure of Selection in Early Liver Transplantation for Severe Alcoholic Hepatitis Not Responding to Medical Treatment QuickTransHAA.</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>QuickTrans</t>
         </is>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
       <c r="J87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" t="b">
         <v>1</v>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="L87" t="b">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4560,36 +4995,41 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>NCT03743831</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>Comparison of Haemodynamic Effects During Orotracheal Intubation, by Direct or Indirect Laryngoscopy With Airtraq, Controlled, Prospective, Randomized, Simple-blind, Monocentric Study at the Lille University Hospital Specialties Block.</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>HEMODAIRTRAQ</t>
         </is>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
       <c r="J88" t="b">
         <v>0</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4608,36 +5048,41 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>NCT03710096</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>Comparison of McGrath and Macintosh Laryngoscopes for Insertion of a Double Lumen Tube by Residents</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>MacGrathDES</t>
         </is>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
       <c r="J89" t="b">
         <v>0</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="L89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4656,36 +5101,41 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>NCT03315819</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>First Episode of Anterior Glenohumeral Dislocation in Adult Patients Under 25 Years of Age: Anterior Capsulo-labral Reinsertion by Arthroscopic Approach Versus Immobilization "</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>BANKART</t>
         </is>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
       <c r="J90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" t="b">
         <v>1</v>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="L90" t="b">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4704,36 +5154,41 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>NCT02281929</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>Evaluation of the Efficacy of an Antibiotic Combined With Standard Treatment in Severe Alcoholic Hepatitis</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>AntibioCor</t>
         </is>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
       <c r="J91" t="b">
         <v>0</v>
       </c>
       <c r="K91" t="b">
         <v>0</v>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="L91" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4752,32 +5207,37 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>NCT03808246</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>Detection of Usability Errors of a Medical Device Zeneo®</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="b">
         <v>0</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="L92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4796,36 +5256,41 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>NCT01594450</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>Use of Biological Mesh Versus Standard Wound Care in Infected Incisional Ventral Hernias: a Multicenter Randomized Controlled Trial, the SIMBIOSE Study</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>SIMBIOSE</t>
         </is>
       </c>
-      <c r="I93" t="b">
-        <v>1</v>
-      </c>
       <c r="J93" t="b">
         <v>1</v>
       </c>
       <c r="K93" t="b">
         <v>1</v>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="L93" t="b">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -4844,36 +5309,41 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>NCT02994017</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>Prognostic Value of Functional Exercise Test (EFX) in Cystic Fibrosis</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>EFX</t>
         </is>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
       <c r="J94" t="b">
         <v>0</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="L94" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4892,36 +5362,41 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>NCT02667574</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>Phase II Study Evaluating the Interest of Vismodegib as Neo-adjuvant Treatment of Basal Cell Carcinoma (BCC)</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>VISMONEO</t>
         </is>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
       <c r="J95" t="b">
         <v>0</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="L95" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4940,36 +5415,41 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>NCT04173364</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>Interscalene Block and Dysfunction Diaphragmatic: Effect of Low Volume of Ropivacaine 0,1%. A Randomised, Controlled Trial</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>NUMEROBIS</t>
         </is>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
       <c r="J96" t="b">
         <v>0</v>
       </c>
       <c r="K96" t="b">
         <v>0</v>
       </c>
-      <c r="L96" t="inlineStr">
+      <c r="L96" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4986,39 +5466,44 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
         <is>
           <t>2015-003679-31</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>Conservative iron chelation as a disease-modifying strategy in Parkinson’s disease 
  Chélation conservatrice du fer comme stratégie thérapeutique susceptible de ralentir la progression de la maladie de Parkinson</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>FAIRPARK II</t>
         </is>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
       <c r="J97" t="b">
         <v>0</v>
       </c>
       <c r="K97" t="b">
         <v>0</v>
       </c>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5033,36 +5518,41 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>NCT04231656</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>Stoke Volume Measurements During Changes in Cardiac Preload: Are Pulse Contour Analysis (CLEARSIGHT) and Transthoracic Bioelectrical Impedance (NICCOMO) Equivalent?</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>ConBi-Car</t>
         </is>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
       <c r="J98" t="b">
         <v>0</v>
       </c>
       <c r="K98" t="b">
         <v>0</v>
       </c>
-      <c r="L98" t="inlineStr">
+      <c r="L98" t="b">
+        <v>0</v>
+      </c>
+      <c r="M98" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -5081,36 +5571,41 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>NCT03735043</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>Continuous Non-invasive Cardiac Output, an Evaluation of ccNexfin© in a Pregnant Population</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>CoNex</t>
         </is>
       </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
       <c r="J99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" t="b">
         <v>1</v>
       </c>
-      <c r="L99" t="inlineStr">
+      <c r="L99" t="b">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -5129,36 +5624,41 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>NCT04181502</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>Randomized, Single-blind Study of Remote Ischemic Preconditioning in Hepatectomies</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>HEPATOPROTECT</t>
         </is>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
       <c r="J100" t="b">
         <v>0</v>
       </c>
       <c r="K100" t="b">
         <v>0</v>
       </c>
-      <c r="L100" t="inlineStr">
+      <c r="L100" t="b">
+        <v>0</v>
+      </c>
+      <c r="M100" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -5177,36 +5677,41 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>NCT02655315</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>Conservative Iron Chelation as a Disease-modifying Strategy in Parkinson's Disease. European Multicentre, Parallel-group, Placebo-controlled, Randomized Clinical Trial of Deferiprone"</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>FAIRPARKII</t>
         </is>
       </c>
-      <c r="I101" t="b">
-        <v>1</v>
-      </c>
       <c r="J101" t="b">
         <v>1</v>
       </c>
       <c r="K101" t="b">
         <v>1</v>
       </c>
-      <c r="L101" t="inlineStr">
+      <c r="L101" t="b">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5225,36 +5730,41 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>NCT02880033</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>Modulation of Oxidative Stress and Apoptosis of Energy Metabolism by Deferiprone From the Circulating Lymphocytes of Patients With Parkinson's Disease or Amyotrophic Lateral Sclerosis</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>LymphoEnergy</t>
         </is>
       </c>
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
       <c r="J102" t="b">
         <v>0</v>
       </c>
       <c r="K102" t="b">
         <v>0</v>
       </c>
-      <c r="L102" t="inlineStr">
+      <c r="L102" t="b">
+        <v>0</v>
+      </c>
+      <c r="M102" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5273,36 +5783,41 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>NCT03012490</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>Efficacy, Safety and Cost of Comprehensive Versus Standard Remote Monitoring of Patients With Cardiac Resynchronization Therapy</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>ECOST-CRT</t>
         </is>
       </c>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
       <c r="J103" t="b">
         <v>0</v>
       </c>
       <c r="K103" t="b">
         <v>0</v>
       </c>
-      <c r="L103" t="inlineStr">
+      <c r="L103" t="b">
+        <v>0</v>
+      </c>
+      <c r="M103" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5321,36 +5836,41 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>NCT02626481</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr">
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>A Multicenter Open Label Phase II Study of Daratumumab in Combination With Dexamethasone in Multiple Myeloma Resistant or Refractory to Bortezomib and Lenalidomide and Pomalidomide - an IFM 2014-04 Study</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>IFM2014-04</t>
         </is>
       </c>
-      <c r="I104" t="b">
-        <v>0</v>
-      </c>
       <c r="J104" t="b">
         <v>0</v>
       </c>
       <c r="K104" t="b">
         <v>0</v>
       </c>
-      <c r="L104" t="inlineStr">
+      <c r="L104" t="b">
+        <v>0</v>
+      </c>
+      <c r="M104" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5369,32 +5889,37 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>NCT02849236</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>Analgesic Efficacy of the Pectoral Nerve Block Type 1 for Breast Subpectoral Implant Surgery: A Randomized Controlled Study</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="b">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="b">
         <v>0</v>
       </c>
       <c r="K105" t="b">
         <v>0</v>
       </c>
-      <c r="L105" t="inlineStr">
+      <c r="L105" t="b">
+        <v>0</v>
+      </c>
+      <c r="M105" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5413,36 +5938,41 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>NCT03255863</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>Determinants of Patients' Uptake of Therapeutic Education Programme</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>UTEP</t>
         </is>
       </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
       <c r="J106" t="b">
         <v>0</v>
       </c>
       <c r="K106" t="b">
         <v>0</v>
       </c>
-      <c r="L106" t="inlineStr">
+      <c r="L106" t="b">
+        <v>0</v>
+      </c>
+      <c r="M106" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5461,36 +5991,41 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>NCT03261414</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr">
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>Prospective Randomized Study Evaluating the Effect of Pre-operative Hypnosis on Anesthesia, Analgesia and Perioperative Stress Laparoscopic Ileo-caecal Resections of Crohn's Disease.</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>HYSTERIA</t>
         </is>
       </c>
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
       <c r="J107" t="b">
         <v>0</v>
       </c>
       <c r="K107" t="b">
         <v>0</v>
       </c>
-      <c r="L107" t="inlineStr">
+      <c r="L107" t="b">
+        <v>0</v>
+      </c>
+      <c r="M107" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -5509,36 +6044,41 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>NCT02891330</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr">
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>Assessing the Impact of an Educational Personalized Clinical Support Device Preventive and a Referent Nurse in Surgery for Obesity With the Risk of Occurrence of Dumping Syndrome After Gastric Bypass.</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>IRCO</t>
         </is>
       </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
       <c r="J108" t="b">
         <v>0</v>
       </c>
       <c r="K108" t="b">
         <v>0</v>
       </c>
-      <c r="L108" t="inlineStr">
+      <c r="L108" t="b">
+        <v>0</v>
+      </c>
+      <c r="M108" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -5557,36 +6097,41 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>NCT03946046</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr">
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>Results of Botulinum Toxin Injections for Cervical Dystonia : Benefits of Ultrasonography</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>RINOCERAUS</t>
         </is>
       </c>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
       <c r="J109" t="b">
         <v>0</v>
       </c>
       <c r="K109" t="b">
         <v>0</v>
       </c>
-      <c r="L109" t="inlineStr">
+      <c r="L109" t="b">
+        <v>0</v>
+      </c>
+      <c r="M109" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -5605,36 +6150,41 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>NCT04535115</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr">
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>Intraoperative Hemodynamic Optimization: Predictive Value to Fluid Respon-siveness of the Tidal Volume Challenge and the Lung Recruitment Maneuver by Monitoring the Variation of the Pulsed Pressure and the Variation of the Systolic Ejection Volume.</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>TIDALEC</t>
         </is>
       </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
       <c r="J110" t="b">
         <v>0</v>
       </c>
       <c r="K110" t="b">
         <v>0</v>
       </c>
-      <c r="L110" t="inlineStr">
+      <c r="L110" t="b">
+        <v>0</v>
+      </c>
+      <c r="M110" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -5653,36 +6203,41 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>NCT04381637</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>Newborn Infant Parasympathetic Evaluation (NIPE) Index After Three Standardized Tetanic Stimulations (10, 30 and 60 Miliamps) Performed in a Randomized Sequence Under General Anesthesia in a Pediatric Population</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>NIPESTIM</t>
         </is>
       </c>
-      <c r="I111" t="b">
-        <v>1</v>
-      </c>
       <c r="J111" t="b">
         <v>1</v>
       </c>
       <c r="K111" t="b">
         <v>1</v>
       </c>
-      <c r="L111" t="inlineStr">
+      <c r="L111" t="b">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -5701,36 +6256,41 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>NCT02086214</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr">
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>Pressure Therapy in the Treatment of Upper Arm of Cerebral Palsy Children</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>PROPENSIX</t>
         </is>
       </c>
-      <c r="I112" t="b">
-        <v>1</v>
-      </c>
       <c r="J112" t="b">
         <v>1</v>
       </c>
       <c r="K112" t="b">
         <v>1</v>
       </c>
-      <c r="L112" t="inlineStr">
+      <c r="L112" t="b">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -5749,36 +6309,41 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>NCT02749110</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>Participation in Screening for Cervical Cancer: Interest of a Human Papillomavirus (HPV) Self-sampling Device Provided by the General Practitioner; a Cluster Randomized Clinical Trial</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>PaCUDAHL-Gé</t>
         </is>
       </c>
-      <c r="I113" t="b">
-        <v>1</v>
-      </c>
       <c r="J113" t="b">
         <v>1</v>
       </c>
       <c r="K113" t="b">
         <v>1</v>
       </c>
-      <c r="L113" t="inlineStr">
+      <c r="L113" t="b">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -5797,36 +6362,41 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>NCT03048240</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr">
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>A Pilot Study of the Feasibility of Intraoperative Photodynamic Therapy of Glioblastoma.</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>INDYGO</t>
         </is>
       </c>
-      <c r="I114" t="b">
-        <v>1</v>
-      </c>
       <c r="J114" t="b">
         <v>1</v>
       </c>
       <c r="K114" t="b">
         <v>1</v>
       </c>
-      <c r="L114" t="inlineStr">
+      <c r="L114" t="b">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -5845,36 +6415,41 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>NCT03726203</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr">
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>Benign Gynecologic Laparoscopic Surgery: Comparison of Conventional Trocars to the Teleflex® MiniLap® System in Length of Hospitalization, Pain and Aesthetics, a Randomized Study.</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>MiniTroc</t>
         </is>
       </c>
-      <c r="I115" t="b">
-        <v>0</v>
-      </c>
       <c r="J115" t="b">
         <v>0</v>
       </c>
       <c r="K115" t="b">
         <v>0</v>
       </c>
-      <c r="L115" t="inlineStr">
+      <c r="L115" t="b">
+        <v>0</v>
+      </c>
+      <c r="M115" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -5893,36 +6468,41 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>NCT05994196</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr">
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>Evaluation of a Patient Prioritization Software for the Secondary Prioritization of Patients in the Pediatric Emergency Department</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>OPTIMUM</t>
         </is>
       </c>
-      <c r="I116" t="b">
-        <v>0</v>
-      </c>
       <c r="J116" t="b">
         <v>0</v>
       </c>
       <c r="K116" t="b">
         <v>0</v>
       </c>
-      <c r="L116" t="inlineStr">
+      <c r="L116" t="b">
+        <v>0</v>
+      </c>
+      <c r="M116" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -5941,36 +6521,41 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>NCT03200769</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr">
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>Study of the Efficacy of the Treatment of Sleep Apnea Syndrome by CPAP in Pharmacoresistant Epilepsy</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>SASER</t>
         </is>
       </c>
-      <c r="I117" t="b">
-        <v>0</v>
-      </c>
       <c r="J117" t="b">
         <v>0</v>
       </c>
       <c r="K117" t="b">
         <v>0</v>
       </c>
-      <c r="L117" t="inlineStr">
+      <c r="L117" t="b">
+        <v>0</v>
+      </c>
+      <c r="M117" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -5989,36 +6574,41 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>NCT03801941</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr">
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>Cross Over Pilot Study for Evaluation of Pain Reduction in Patients With Chronic Low Back Pain (for More Than 3 Month) Using an Innovative Handheld Device</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>ATLAS</t>
         </is>
       </c>
-      <c r="I118" t="b">
-        <v>0</v>
-      </c>
       <c r="J118" t="b">
         <v>0</v>
       </c>
       <c r="K118" t="b">
         <v>0</v>
       </c>
-      <c r="L118" t="inlineStr">
+      <c r="L118" t="b">
+        <v>0</v>
+      </c>
+      <c r="M118" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -6037,36 +6627,41 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>NCT03741569</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr">
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>Development of a Real-time Signal Processing Algorithm, for Beat-beat Measurement of Fetal Heart Rate and Uterine Contractions by Coupling Non-invasive ABDOminal Sensors</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>RCF-ABDO</t>
         </is>
       </c>
-      <c r="I119" t="b">
-        <v>0</v>
-      </c>
       <c r="J119" t="b">
         <v>0</v>
       </c>
       <c r="K119" t="b">
         <v>0</v>
       </c>
-      <c r="L119" t="inlineStr">
+      <c r="L119" t="b">
+        <v>0</v>
+      </c>
+      <c r="M119" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -6085,36 +6680,41 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>NCT01373866</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr">
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>Multimodal MRI-guided Repetitive Transcranial Magnetic Stimulation to Treat Drug-resistant Hallucinations: a Randomized Control Trial</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>MULTIMODHAL</t>
         </is>
       </c>
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
       <c r="J120" t="b">
         <v>1</v>
       </c>
       <c r="K120" t="b">
         <v>1</v>
       </c>
-      <c r="L120" t="inlineStr">
+      <c r="L120" t="b">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -6133,36 +6733,41 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>NCT03556696</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr">
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>Automatic Remifentanil Administration Guided by the Analgesia Nociception Index During Propofol Anesthesia</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>ANI-LOOP</t>
         </is>
       </c>
-      <c r="I121" t="b">
-        <v>0</v>
-      </c>
       <c r="J121" t="b">
         <v>0</v>
       </c>
       <c r="K121" t="b">
         <v>0</v>
       </c>
-      <c r="L121" t="inlineStr">
+      <c r="L121" t="b">
+        <v>0</v>
+      </c>
+      <c r="M121" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -6181,36 +6786,41 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>NCT01423396</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr">
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>Impact of Controlling Vascular Risk Factors on the Progression of Alzheimer's Disease</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>COVARAD</t>
         </is>
       </c>
-      <c r="I122" t="b">
-        <v>0</v>
-      </c>
       <c r="J122" t="b">
         <v>0</v>
       </c>
       <c r="K122" t="b">
         <v>0</v>
       </c>
-      <c r="L122" t="inlineStr">
+      <c r="L122" t="b">
+        <v>0</v>
+      </c>
+      <c r="M122" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -6229,40 +6839,45 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>NCT04332276</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr">
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
         <is>
           <t>2024-517566-42-00</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>A New Concept of Continuous Dopaminergic Stimulation by Cerebroventricular Administration of A-dopamine (dopamine Stored in Anaerobia) for Severe Motor Fluctuations in Parkinson's Disease?</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>DIVE</t>
         </is>
       </c>
-      <c r="I123" t="b">
-        <v>0</v>
-      </c>
       <c r="J123" t="b">
         <v>0</v>
       </c>
       <c r="K123" t="b">
         <v>0</v>
       </c>
-      <c r="L123" t="inlineStr">
+      <c r="L123" t="b">
+        <v>0</v>
+      </c>
+      <c r="M123" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -6279,36 +6894,41 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr">
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
         <is>
           <t>2016-001480-36</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr">
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
         <is>
           <t>Assessment of the IgG trough level in subjects with primary immunodeficiency switching from standard subcutaneous immunoglobulin (SCIG) to every other week HyQvia  
  Évaluation du taux résiduel d’IgG chez des sujets atteints de déficit Immunitaire Primitif (DIP), après substitution d’injections sous-cutanées d’immunoglobuline standard (IGSC) par HyQvia administré toutes les deux semaines.</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t>HyQvia 
  HyQvia</t>
         </is>
       </c>
-      <c r="I124" t="b">
-        <v>0</v>
-      </c>
       <c r="J124" t="b">
         <v>0</v>
       </c>
       <c r="K124" t="b">
         <v>0</v>
       </c>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="b">
+        <v>0</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/publipostage2/02ppyfa04/liste_essais_cliniques_identifies_02ppyfa04.xlsx
+++ b/publipostage2/02ppyfa04/liste_essais_cliniques_identifies_02ppyfa04.xlsx
@@ -55,22 +55,22 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>🟧</t>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>📙</t>
   </si>
   <si>
     <t>rouge</t>
   </si>
   <si>
-    <t>noir</t>
+    <t>bleu</t>
   </si>
   <si>
     <t>vert</t>

--- a/publipostage2/02ppyfa04/liste_essais_cliniques_identifies_02ppyfa04.xlsx
+++ b/publipostage2/02ppyfa04/liste_essais_cliniques_identifies_02ppyfa04.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📗</t>
-  </si>
-  <si>
-    <t>📙</t>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>+3</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/02ppyfa04/liste_essais_cliniques_identifies_02ppyfa04.xlsx
+++ b/publipostage2/02ppyfa04/liste_essais_cliniques_identifies_02ppyfa04.xlsx
@@ -70,7 +70,7 @@
     <t>rouge</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>vert</t>
@@ -79,16 +79,16 @@
     <t>orange</t>
   </si>
   <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
   </si>
   <si>
     <t>NCT01512277</t>

--- a/publipostage2/02ppyfa04/liste_essais_cliniques_identifies_02ppyfa04.xlsx
+++ b/publipostage2/02ppyfa04/liste_essais_cliniques_identifies_02ppyfa04.xlsx
@@ -79,354 +79,354 @@
     <t>NCT00122057</t>
   </si>
   <si>
+    <t>NCT00446264</t>
+  </si>
+  <si>
     <t>NCT02385565</t>
   </si>
   <si>
-    <t>NCT00446264</t>
-  </si>
-  <si>
     <t>NCT01082666</t>
   </si>
   <si>
+    <t>NCT01487590</t>
+  </si>
+  <si>
     <t>NCT01108029</t>
   </si>
   <si>
-    <t>NCT01487590</t>
+    <t>NCT00914095</t>
+  </si>
+  <si>
+    <t>NCT00642980</t>
   </si>
   <si>
     <t>NCT01214226</t>
   </si>
   <si>
-    <t>NCT00642980</t>
+    <t>NCT01679093</t>
+  </si>
+  <si>
+    <t>NCT01351259</t>
   </si>
   <si>
     <t>NCT00943748</t>
   </si>
   <si>
-    <t>NCT01351259</t>
-  </si>
-  <si>
-    <t>NCT00914095</t>
-  </si>
-  <si>
-    <t>NCT01679093</t>
-  </si>
-  <si>
     <t>NCT00767091</t>
   </si>
   <si>
+    <t>NCT01415219</t>
+  </si>
+  <si>
+    <t>NCT01279096</t>
+  </si>
+  <si>
+    <t>NCT00639964</t>
+  </si>
+  <si>
+    <t>NCT01487395</t>
+  </si>
+  <si>
     <t>NCT00766519</t>
   </si>
   <si>
     <t>NCT01295736</t>
   </si>
   <si>
-    <t>NCT01279096</t>
-  </si>
-  <si>
-    <t>NCT01415219</t>
-  </si>
-  <si>
-    <t>NCT01487395</t>
-  </si>
-  <si>
-    <t>NCT00639964</t>
+    <t>NCT03066362</t>
+  </si>
+  <si>
+    <t>NCT01965821</t>
   </si>
   <si>
     <t>NCT03164746</t>
   </si>
   <si>
+    <t>NCT01123174</t>
+  </si>
+  <si>
+    <t>NCT04354311</t>
+  </si>
+  <si>
     <t>NCT01341002</t>
   </si>
   <si>
-    <t>NCT04354311</t>
-  </si>
-  <si>
-    <t>NCT01965821</t>
-  </si>
-  <si>
-    <t>NCT01123174</t>
-  </si>
-  <si>
-    <t>NCT03066362</t>
+    <t>NCT01053949</t>
   </si>
   <si>
     <t>NCT00937456</t>
   </si>
   <si>
+    <t>NCT01713504</t>
+  </si>
+  <si>
+    <t>NCT03066375</t>
+  </si>
+  <si>
+    <t>NCT02250755</t>
+  </si>
+  <si>
     <t>NCT01637441</t>
   </si>
   <si>
-    <t>NCT03066375</t>
+    <t>NCT01948635</t>
+  </si>
+  <si>
+    <t>NCT02662725</t>
+  </si>
+  <si>
+    <t>NCT01745640</t>
+  </si>
+  <si>
+    <t>NCT02844101</t>
   </si>
   <si>
     <t>NCT01641627</t>
   </si>
   <si>
-    <t>NCT01745640</t>
-  </si>
-  <si>
-    <t>NCT02844101</t>
-  </si>
-  <si>
-    <t>NCT01713504</t>
-  </si>
-  <si>
-    <t>NCT01053949</t>
-  </si>
-  <si>
-    <t>NCT01948635</t>
-  </si>
-  <si>
-    <t>NCT02662725</t>
-  </si>
-  <si>
-    <t>NCT02250755</t>
+    <t>NCT03751787</t>
+  </si>
+  <si>
+    <t>NCT01622400</t>
+  </si>
+  <si>
+    <t>NCT02750150</t>
+  </si>
+  <si>
+    <t>NCT00946959</t>
+  </si>
+  <si>
+    <t>NCT02242955</t>
+  </si>
+  <si>
+    <t>NCT02364908</t>
+  </si>
+  <si>
+    <t>NCT02213302</t>
   </si>
   <si>
     <t>NCT02164253</t>
   </si>
   <si>
-    <t>NCT03751787</t>
+    <t>NCT04146675</t>
+  </si>
+  <si>
+    <t>NCT01123187</t>
   </si>
   <si>
     <t>NCT02154178</t>
   </si>
   <si>
-    <t>NCT04146675</t>
-  </si>
-  <si>
-    <t>NCT00946959</t>
-  </si>
-  <si>
-    <t>NCT01622400</t>
-  </si>
-  <si>
-    <t>NCT01123187</t>
-  </si>
-  <si>
-    <t>NCT02364908</t>
-  </si>
-  <si>
-    <t>NCT02750150</t>
-  </si>
-  <si>
-    <t>NCT02242955</t>
-  </si>
-  <si>
-    <t>NCT02213302</t>
+    <t>NCT02193412</t>
+  </si>
+  <si>
+    <t>NCT03185403</t>
+  </si>
+  <si>
+    <t>NCT02812901</t>
+  </si>
+  <si>
+    <t>NCT03286660</t>
+  </si>
+  <si>
+    <t>NCT03076892</t>
+  </si>
+  <si>
+    <t>NCT02778178</t>
+  </si>
+  <si>
+    <t>NCT02969733</t>
   </si>
   <si>
     <t>NCT03280290</t>
   </si>
   <si>
-    <t>NCT03286660</t>
+    <t>NCT03381456</t>
   </si>
   <si>
     <t>NCT02905071</t>
   </si>
   <si>
-    <t>NCT02969733</t>
+    <t>NCT03509805</t>
+  </si>
+  <si>
+    <t>NCT02902016</t>
   </si>
   <si>
     <t>NCT01488214</t>
   </si>
   <si>
-    <t>NCT03076892</t>
+    <t>NCT02302469</t>
+  </si>
+  <si>
+    <t>NCT02891395</t>
   </si>
   <si>
     <t>NCT03749304</t>
   </si>
   <si>
-    <t>NCT02302469</t>
-  </si>
-  <si>
-    <t>NCT02902016</t>
-  </si>
-  <si>
-    <t>NCT02193412</t>
-  </si>
-  <si>
-    <t>NCT02812901</t>
-  </si>
-  <si>
-    <t>NCT03185403</t>
-  </si>
-  <si>
-    <t>NCT02778178</t>
-  </si>
-  <si>
-    <t>NCT03509805</t>
-  </si>
-  <si>
-    <t>NCT03381456</t>
-  </si>
-  <si>
-    <t>NCT02891395</t>
+    <t>NCT02621775</t>
+  </si>
+  <si>
+    <t>NCT02272361</t>
+  </si>
+  <si>
+    <t>NCT02702128</t>
+  </si>
+  <si>
+    <t>NCT02881437</t>
+  </si>
+  <si>
+    <t>NCT02525705</t>
+  </si>
+  <si>
+    <t>NCT02281916</t>
   </si>
   <si>
     <t>NCT02662504</t>
   </si>
   <si>
-    <t>NCT02525705</t>
-  </si>
-  <si>
-    <t>NCT02272361</t>
-  </si>
-  <si>
-    <t>NCT02881437</t>
-  </si>
-  <si>
-    <t>NCT02621775</t>
-  </si>
-  <si>
-    <t>NCT02281916</t>
-  </si>
-  <si>
-    <t>NCT02702128</t>
+    <t>NCT01756794</t>
+  </si>
+  <si>
+    <t>NCT03565822</t>
+  </si>
+  <si>
+    <t>NCT03158376</t>
+  </si>
+  <si>
+    <t>NCT02884557</t>
+  </si>
+  <si>
+    <t>NCT02821169</t>
+  </si>
+  <si>
+    <t>NCT03232697</t>
+  </si>
+  <si>
+    <t>NCT03808246</t>
+  </si>
+  <si>
+    <t>NCT03743831</t>
+  </si>
+  <si>
+    <t>NCT03370627</t>
+  </si>
+  <si>
+    <t>NCT03238430</t>
+  </si>
+  <si>
+    <t>NCT03710096</t>
+  </si>
+  <si>
+    <t>NCT02994017</t>
   </si>
   <si>
     <t>NCT03980210</t>
   </si>
   <si>
-    <t>NCT03158376</t>
-  </si>
-  <si>
-    <t>NCT03370627</t>
-  </si>
-  <si>
-    <t>NCT02821169</t>
+    <t>NCT01594450</t>
+  </si>
+  <si>
+    <t>NCT03315819</t>
+  </si>
+  <si>
+    <t>NCT02281929</t>
   </si>
   <si>
     <t>NCT03342820</t>
   </si>
   <si>
-    <t>NCT03238430</t>
-  </si>
-  <si>
-    <t>NCT02884557</t>
-  </si>
-  <si>
-    <t>NCT03565822</t>
-  </si>
-  <si>
-    <t>NCT03232697</t>
-  </si>
-  <si>
-    <t>NCT01756794</t>
-  </si>
-  <si>
-    <t>NCT03743831</t>
-  </si>
-  <si>
-    <t>NCT03710096</t>
-  </si>
-  <si>
-    <t>NCT03315819</t>
-  </si>
-  <si>
-    <t>NCT02281929</t>
-  </si>
-  <si>
-    <t>NCT03808246</t>
-  </si>
-  <si>
-    <t>NCT01594450</t>
-  </si>
-  <si>
-    <t>NCT02994017</t>
+    <t>NCT04173364</t>
+  </si>
+  <si>
+    <t>NCT03946046</t>
+  </si>
+  <si>
+    <t>NCT02891330</t>
+  </si>
+  <si>
+    <t>NCT02655315</t>
+  </si>
+  <si>
+    <t>NCT02880033</t>
+  </si>
+  <si>
+    <t>NCT04181502</t>
+  </si>
+  <si>
+    <t>NCT04231656</t>
+  </si>
+  <si>
+    <t>NCT02626481</t>
+  </si>
+  <si>
+    <t>NCT02849236</t>
+  </si>
+  <si>
+    <t>NCT03261414</t>
+  </si>
+  <si>
+    <t>NCT03255863</t>
+  </si>
+  <si>
+    <t>NCT03012490</t>
   </si>
   <si>
     <t>NCT02667574</t>
   </si>
   <si>
-    <t>NCT04173364</t>
-  </si>
-  <si>
-    <t>NCT04231656</t>
-  </si>
-  <si>
     <t>NCT03735043</t>
   </si>
   <si>
-    <t>NCT04181502</t>
-  </si>
-  <si>
-    <t>NCT02655315</t>
-  </si>
-  <si>
-    <t>NCT02880033</t>
-  </si>
-  <si>
-    <t>NCT03012490</t>
-  </si>
-  <si>
-    <t>NCT02626481</t>
-  </si>
-  <si>
-    <t>NCT02849236</t>
-  </si>
-  <si>
-    <t>NCT03255863</t>
-  </si>
-  <si>
-    <t>NCT03261414</t>
-  </si>
-  <si>
-    <t>NCT02891330</t>
-  </si>
-  <si>
-    <t>NCT03946046</t>
-  </si>
-  <si>
     <t>NCT04535115</t>
   </si>
   <si>
+    <t>NCT03726203</t>
+  </si>
+  <si>
     <t>NCT04381637</t>
   </si>
   <si>
     <t>NCT02086214</t>
   </si>
   <si>
+    <t>NCT03801941</t>
+  </si>
+  <si>
+    <t>NCT03048240</t>
+  </si>
+  <si>
+    <t>NCT03200769</t>
+  </si>
+  <si>
     <t>NCT02749110</t>
   </si>
   <si>
-    <t>NCT03048240</t>
-  </si>
-  <si>
-    <t>NCT03726203</t>
-  </si>
-  <si>
     <t>NCT05994196</t>
   </si>
   <si>
-    <t>NCT03200769</t>
-  </si>
-  <si>
-    <t>NCT03801941</t>
-  </si>
-  <si>
     <t>NCT03741569</t>
   </si>
   <si>
+    <t>NCT03556696</t>
+  </si>
+  <si>
     <t>NCT01373866</t>
   </si>
   <si>
-    <t>NCT03556696</t>
-  </si>
-  <si>
     <t>NCT01423396</t>
   </si>
   <si>
     <t>NCT04332276</t>
   </si>
   <si>
+    <t>2008-005801-20</t>
+  </si>
+  <si>
     <t>2006-006944-78</t>
   </si>
   <si>
-    <t>2008-005801-20</t>
-  </si>
-  <si>
     <t>2012-000770-36</t>
   </si>
   <si>
@@ -505,353 +505,353 @@
     <t>Multicenter Randomized Study to Compare Induction Therapy With Polyclonal Antithymocytes Globulins (ATG) Versus Monoclonal Anti-IL2R Antibody (Daclizumab) in a Triple Drug Regimen in Renal Transplant Recipients With High Immunological Risk.</t>
   </si>
   <si>
+    <t>Sequential Islet Transplantation With Steroid Free Immunosuppression for Type 1 Diabetes</t>
+  </si>
+  <si>
     <t>Effect Of The System In The Enriched Fat Metabolism Of The Child Reached Mitochondrial Cytopathy</t>
   </si>
   <si>
-    <t>Sequential Islet Transplantation With Steroid Free Immunosuppression for Type 1 Diabetes</t>
-  </si>
-  <si>
     <t>Phase 4 Study of Continuous Control of Tracheal Cuff Pressure and Microaspiration in Critically Ill Patients</t>
   </si>
   <si>
+    <t>A Simple Blind Controlled Randomized Trial: Cephalic Version by Acupuncture-moxibustion vs Placebo for Breech Presentation</t>
+  </si>
+  <si>
     <t>Study of Memantine to Treat Gait Disorders And Attention Deficit In Parkinson's Disease: A Randomized, Double-Blind, Placebo-Controlled, Parallel-Group, Monocentric Trial</t>
   </si>
   <si>
-    <t>A Simple Blind Controlled Randomized Trial: Cephalic Version by Acupuncture-moxibustion vs Placebo for Breech Presentation</t>
+    <t>Study of Methylphenidate to Treat Gait Disorders And Attention Deficit In Parkinson's Disease: A Randomized, Double-Blind, Placebo-Controlled, Parallel-Group, Multicentric Trial</t>
+  </si>
+  <si>
+    <t>Randomized Multicenter Trial for the Prevention of Preterm Delivery by Testing for and Treatment of Bacterial Vaginosis in the First Trimester of Pregnancy</t>
   </si>
   <si>
     <t>Evaluation of the Survival Benefit of the Adjunction of Pentoxifylline to Corticosteroids in Patients Suffering From Severe Alcoholic Hepatitis</t>
   </si>
   <si>
-    <t>Randomized Multicenter Trial for the Prevention of Preterm Delivery by Testing for and Treatment of Bacterial Vaginosis in the First Trimester of Pregnancy</t>
+    <t>Etude d’efficacité et d’acceptabilité du méthylphénidate dans les troubles de la marche de la maladie de Parkinson : Etude multicentrique en double aveugle versus placebo.</t>
+  </si>
+  <si>
+    <t>Antagonism Research Between Antiemetics Agents (Droperidol, Dexametasone, Ondansetron) and Acetaminophen in Thyroidectomy's Post-operative Analgesia.</t>
+  </si>
+  <si>
+    <t>Continuous Control of Polyurethane Tracheal-cuff Pressure: Efficiency of a Pneumatic Device</t>
+  </si>
+  <si>
+    <t>Evaluation du bénéfice de survie lors de l'adjonction de pentoxifylline à la corticothérapie dans l'hépatite alcoolique sévère</t>
   </si>
   <si>
     <t>Efficacy and Safety of the Iron Chelator Deferiprone on Iron Overload in the Brain in Parkinson's Disease</t>
   </si>
   <si>
-    <t>Evaluation du bénéfice de survie lors de l'adjonction de pentoxifylline à la corticothérapie dans l'hépatite alcoolique sévère</t>
-  </si>
-  <si>
-    <t>Continuous Control of Polyurethane Tracheal-cuff Pressure: Efficiency of a Pneumatic Device</t>
-  </si>
-  <si>
-    <t>Study of Methylphenidate to Treat Gait Disorders And Attention Deficit In Parkinson's Disease: A Randomized, Double-Blind, Placebo-Controlled, Parallel-Group, Multicentric Trial</t>
-  </si>
-  <si>
-    <t>Etude d’efficacité et d’acceptabilité du méthylphénidate dans les troubles de la marche de la maladie de Parkinson : Etude multicentrique en double aveugle versus placebo.</t>
-  </si>
-  <si>
-    <t>Antagonism Research Between Antiemetics Agents (Droperidol, Dexametasone, Ondansetron) and Acetaminophen in Thyroidectomy's Post-operative Analgesia.</t>
-  </si>
-  <si>
     <t>A Randomized, Double-blind, Placebo-controlled, Parallel-group, Multicentric Trial</t>
   </si>
   <si>
+    <t>Efficacy of an Individual Rehabilitation Program in Polymyositis and Dermatomyositis</t>
+  </si>
+  <si>
+    <t>A Phase I Dose Escalation Study of Clofarabine Given in Combination With Multi-agent Therapy for Remission Induction in Pediatric Patients With Acute Lymphoblastic Leukemia in First Relapse or Refractory to First Line Therapy -</t>
+  </si>
+  <si>
+    <t>Exploration of the Lipid Metabolism During the Diabetic Pregnancies and Research for New Biological Predictors to Nutritional Interventions</t>
+  </si>
+  <si>
+    <t>Effect of a 15-day Donepezil Treatment on Biomarkers of AD in Healthy Volunteers</t>
+  </si>
+  <si>
     <t>Effect of Intraoperative Volume Optimization on Outcome After Intrabdominal Surgery: a Multicenter, Randomized, Double-blind, Comparative Study</t>
   </si>
   <si>
     <t>Evaluation of the Efficacy of Sildenafil on Time to Healing in Patients With Scleroderma and Ischaemic Digital Ulcers: a Prospective, Longitudinal, Randomized, Comparative, Double-blind, 2-parallel-arm, Placebo-controlled Study</t>
   </si>
   <si>
-    <t>A Phase I Dose Escalation Study of Clofarabine Given in Combination With Multi-agent Therapy for Remission Induction in Pediatric Patients With Acute Lymphoblastic Leukemia in First Relapse or Refractory to First Line Therapy -</t>
-  </si>
-  <si>
-    <t>Efficacy of an Individual Rehabilitation Program in Polymyositis and Dermatomyositis</t>
-  </si>
-  <si>
-    <t>Effect of a 15-day Donepezil Treatment on Biomarkers of AD in Healthy Volunteers</t>
-  </si>
-  <si>
-    <t>Exploration of the Lipid Metabolism During the Diabetic Pregnancies and Research for New Biological Predictors to Nutritional Interventions</t>
+    <t>Respiratory Variations of the Inferior Vena Cava and Femoral Artery Flow to Predict Fluid Responsiveness in Spontaneously Breathing Patients With Sepsis, Acute Circulatory Failure, and Regular Cardiac Rhythm</t>
+  </si>
+  <si>
+    <t>Impact of Mallinckrodt Electronic Device on Continuous Control of Tracheal Cuff Pressure</t>
   </si>
   <si>
     <t>Demonstration of the Effectiveness of Treatment by Therapeutic Body Wraps in Children and Adolescents Suffering From Autism Spectrum Disorder With Severe Injurious Behavior.</t>
   </si>
   <si>
+    <t>Effectiveness of a "Case Management Algorithm" After a Suicide Attempt in Terms of Repetition of the Suicidal Behaviors and Medico-economic Impact</t>
+  </si>
+  <si>
+    <t>Relationship Between the ANI Score During Standardized Painful Stimulation and the Nociceptive Response to Laryngoscopy Intubation</t>
+  </si>
+  <si>
     <t>Red Blood Cells (RBC) Transfusion Related to Central Venous O2 Saturation</t>
   </si>
   <si>
-    <t>Relationship Between the ANI Score During Standardized Painful Stimulation and the Nociceptive Response to Laryngoscopy Intubation</t>
-  </si>
-  <si>
-    <t>Impact of Mallinckrodt Electronic Device on Continuous Control of Tracheal Cuff Pressure</t>
-  </si>
-  <si>
-    <t>Effectiveness of a "Case Management Algorithm" After a Suicide Attempt in Terms of Repetition of the Suicidal Behaviors and Medico-economic Impact</t>
-  </si>
-  <si>
-    <t>Respiratory Variations of the Inferior Vena Cava and Femoral Artery Flow to Predict Fluid Responsiveness in Spontaneously Breathing Patients With Sepsis, Acute Circulatory Failure, and Regular Cardiac Rhythm</t>
+    <t>A Multicenter Randomized Open Label Phase II Study of Pomalidomide and Dexamethasone in Relapse and Refractory Multiple Myeloma Patients Who Are Progressive and Did Not Achieve at Least a Partial Response to Bortezomib and Lenalidomide</t>
   </si>
   <si>
     <t>Open vs Laparoscopically-assisted Esophagectomy for Cancer: A Multicentric Phase III Prospective Randomized Controlled Trial</t>
   </si>
   <si>
+    <t>Identification of New Markers in the Hypereosinophilic Syndrome</t>
+  </si>
+  <si>
+    <t>Diagnostic Accuracy of the Inferior Vena Cava Collapsibility to Predict Fluid Responsiveness in Spontaneously Breathing Patients With Sepsis, Acute Circulatory Failure, and Irregular Cardiac Rhythm</t>
+  </si>
+  <si>
+    <t>Comparison of MRI Sequences T1 and T2 * Cerebral Perfusion to Aid in the Diagnosis and Evaluation of Brain Therapeutic Response With Chemotherapy or Targeted Therapy(s) Lesion(s) in Patients Treated and Followed for a Pulmonary Neoplasia</t>
+  </si>
+  <si>
     <t>Randomized Study Comparing Laparoscopic Sacropexy and Vaginal Mesh Surgery in Cystocele Repair</t>
   </si>
   <si>
-    <t>Diagnostic Accuracy of the Inferior Vena Cava Collapsibility to Predict Fluid Responsiveness in Spontaneously Breathing Patients With Sepsis, Acute Circulatory Failure, and Irregular Cardiac Rhythm</t>
+    <t>Impact of Tracheal Cuff Shape on Microaspiration in Intensive Care Units</t>
+  </si>
+  <si>
+    <t>A Multicenter Phase II Study of Ipilimumab Combined With a Stereotactic Radiosurgery in Melanoma Patients With Brain Metastases</t>
+  </si>
+  <si>
+    <t>A Multicenter Open Label Phase II Study of Pomalidomide and Dexamethasone in Progressive Relapsed or Refractory Multiple Myeloma Patients With Deletion 17p or Translocation (4;14) Adverse Karyotypic Abnormalities-IFM2010-02</t>
+  </si>
+  <si>
+    <t>Assess Whether Knowledge by the Children and Adolescents of the Function of the Accelerometer Determines Its Amount of Physical Activity</t>
   </si>
   <si>
     <t>Phase 2 Randomized Clinical Trial, Efficy of a Proprioceptive Stimulation Device in Term of Prevention of Muscle Atrophy of the Calf After Total Knee Replacement</t>
   </si>
   <si>
-    <t>A Multicenter Open Label Phase II Study of Pomalidomide and Dexamethasone in Progressive Relapsed or Refractory Multiple Myeloma Patients With Deletion 17p or Translocation (4;14) Adverse Karyotypic Abnormalities-IFM2010-02</t>
-  </si>
-  <si>
-    <t>Assess Whether Knowledge by the Children and Adolescents of the Function of the Accelerometer Determines Its Amount of Physical Activity</t>
-  </si>
-  <si>
-    <t>Identification of New Markers in the Hypereosinophilic Syndrome</t>
-  </si>
-  <si>
-    <t>A Multicenter Randomized Open Label Phase II Study of Pomalidomide and Dexamethasone in Relapse and Refractory Multiple Myeloma Patients Who Are Progressive and Did Not Achieve at Least a Partial Response to Bortezomib and Lenalidomide</t>
-  </si>
-  <si>
-    <t>Impact of Tracheal Cuff Shape on Microaspiration in Intensive Care Units</t>
-  </si>
-  <si>
-    <t>A Multicenter Phase II Study of Ipilimumab Combined With a Stereotactic Radiosurgery in Melanoma Patients With Brain Metastases</t>
-  </si>
-  <si>
-    <t>Comparison of MRI Sequences T1 and T2 * Cerebral Perfusion to Aid in the Diagnosis and Evaluation of Brain Therapeutic Response With Chemotherapy or Targeted Therapy(s) Lesion(s) in Patients Treated and Followed for a Pulmonary Neoplasia</t>
+    <t>Interest of Treatment With Cranial Osteopathy in Functional Disorders of the Newborn</t>
+  </si>
+  <si>
+    <t>Randomized Prospective Trial Evaluating the Efficacy of a Dedicated Therapeutic Education Program on the Blood Pressure and Other Cardiovascular Risk Factors Control in General Practice Patients at High Cardiovascular Risk</t>
+  </si>
+  <si>
+    <t>A Randomized Trial to Evaluate Freezed-dried Plasma in the Initial Management of Coagulopathy in Trauma Patients</t>
+  </si>
+  <si>
+    <t>Characterization of Factors Influencing the Occurrence of Cognitive Decline in Patients With Coronary Artery Disease and Undergoing Cardiac Surgery and Coronary Angioplasty</t>
+  </si>
+  <si>
+    <t>Impact of a One-month Long Detoxification Diazepam Treatment on Early Alcohol Relapse</t>
+  </si>
+  <si>
+    <t>Prospective Evaluation of Adherence to Antimalarials in Patients With Systemic Lupus and Role of Therapeutic Education</t>
+  </si>
+  <si>
+    <t>Effects of Premedication by Midazolam on Preoperative Anxiety for Emergency Surgery</t>
   </si>
   <si>
     <t>Feasibility and Safety Pilot Therapeutic Study of the Iron Chelator Deferiprone in Amyotrophic Lateral Sclerosis</t>
   </si>
   <si>
-    <t>Interest of Treatment With Cranial Osteopathy in Functional Disorders of the Newborn</t>
+    <t>Pilot Study for the Evaluation of a T-shirt "Balance" Containing Ceramic Fibers</t>
+  </si>
+  <si>
+    <t>Phase 2 Study of Islet Cell Transplantation in Patients With Type I Diabetes With Previous Kidney Transplantation With Steroid Free Immunosuppression</t>
   </si>
   <si>
     <t>Fungal Biomarkers to Reduce Duration of Empirical Antifungal Therapy: a Randomized Comparative Study</t>
   </si>
   <si>
-    <t>Pilot Study for the Evaluation of a T-shirt "Balance" Containing Ceramic Fibers</t>
-  </si>
-  <si>
-    <t>Characterization of Factors Influencing the Occurrence of Cognitive Decline in Patients With Coronary Artery Disease and Undergoing Cardiac Surgery and Coronary Angioplasty</t>
-  </si>
-  <si>
-    <t>Randomized Prospective Trial Evaluating the Efficacy of a Dedicated Therapeutic Education Program on the Blood Pressure and Other Cardiovascular Risk Factors Control in General Practice Patients at High Cardiovascular Risk</t>
-  </si>
-  <si>
-    <t>Phase 2 Study of Islet Cell Transplantation in Patients With Type I Diabetes With Previous Kidney Transplantation With Steroid Free Immunosuppression</t>
-  </si>
-  <si>
-    <t>Prospective Evaluation of Adherence to Antimalarials in Patients With Systemic Lupus and Role of Therapeutic Education</t>
-  </si>
-  <si>
-    <t>A Randomized Trial to Evaluate Freezed-dried Plasma in the Initial Management of Coagulopathy in Trauma Patients</t>
-  </si>
-  <si>
-    <t>Impact of a One-month Long Detoxification Diazepam Treatment on Early Alcohol Relapse</t>
-  </si>
-  <si>
-    <t>Effects of Premedication by Midazolam on Preoperative Anxiety for Emergency Surgery</t>
+    <t>Efficacité et tolérance du nilotinib chez les patients atteints d'une maladie chronique du greffon contre l’hôte (Graft Versus Host, GVH) n'ayant pas répondu à l'imatinib mésilate.</t>
+  </si>
+  <si>
+    <t>Influence of Variations of Systemic Venous Return on Analgesia Nociception Index (ANI) During General Anaesthesia</t>
+  </si>
+  <si>
+    <t>Comparison of the Hemodynamic Effect Between the Paravertebral Block and Thoracic Epidural in Esophageal Surgery With Thoracotomy .</t>
+  </si>
+  <si>
+    <t>Morning / Afternoon Variation in Myocardial Ischemia Tolerance</t>
+  </si>
+  <si>
+    <t>Chair Rise Tests for a Simplified Evaluation of Functional Response After a Rehabilitation Program in Patients COPD.</t>
+  </si>
+  <si>
+    <t>A Phase II Study Evaluating the Non-inferiority and Better Tolerability of the Device PHOS-ISTOS Compared to the Conventional Photodynamic Therapy (PDT)</t>
+  </si>
+  <si>
+    <t>Analgesic Efficacy of Transversus Abdominis Plane (TAP) Block After Lumbar Spine Surgery Through Anterior Approach (Anterior Lumbar or Direct Lateral Interbody Fusion): a Prospective, Randomized, Double-blind Placebo-controlled Study</t>
+  </si>
+  <si>
+    <t>The Interest of the Xylocaine® and Ketamine on the Per and Postoperative Management of Acute and Chronic Postoperative Pain After Colectomy by Laparoscopy</t>
   </si>
   <si>
     <t>Partial Selective Depletion in Lymphocytes Transplant T CD4+ CCR7+ in Hematopoeitic Stem Cells Allograft</t>
   </si>
   <si>
-    <t>Chair Rise Tests for a Simplified Evaluation of Functional Response After a Rehabilitation Program in Patients COPD.</t>
+    <t>Task-dependent Operation of a Mechanism Intracortical Inhibition in Dystonia</t>
   </si>
   <si>
     <t>Study of the Psychometric Properties of the Scale of Well-being at Work: The Serenat Study</t>
   </si>
   <si>
-    <t>The Interest of the Xylocaine® and Ketamine on the Per and Postoperative Management of Acute and Chronic Postoperative Pain After Colectomy by Laparoscopy</t>
+    <t>Sleep Apnea Syndrome in Obese Women During Pregnancy</t>
+  </si>
+  <si>
+    <t>Modulation of Lactase Expression by a New Synthetic PPARgamma Ligand in Ex-vivo Cultures of Duodenal Biopsies</t>
   </si>
   <si>
     <t>Assessment of Neuropsychiatric Involvement in Systemic Sclerosis.</t>
   </si>
   <si>
-    <t>A Phase II Study Evaluating the Non-inferiority and Better Tolerability of the Device PHOS-ISTOS Compared to the Conventional Photodynamic Therapy (PDT)</t>
+    <t>A Multicenter Phase I/II Dose Escalation Study of Lenalidomide in Relapse/Refractory Waldenstrom Macroglobulinemia</t>
+  </si>
+  <si>
+    <t>Efficacy and Safety of Nilotinib in Patients With a Chronic Disease of the Graft Against the Host (Graft Versus Host, GVH) Did Not Respond to Imatinib Mesylate.</t>
   </si>
   <si>
     <t>Monitoring Analgesia by ANI (Analgesia The Nociception Index) During Surgery Inflammatory Bowel</t>
   </si>
   <si>
-    <t>A Multicenter Phase I/II Dose Escalation Study of Lenalidomide in Relapse/Refractory Waldenstrom Macroglobulinemia</t>
-  </si>
-  <si>
-    <t>Modulation of Lactase Expression by a New Synthetic PPARgamma Ligand in Ex-vivo Cultures of Duodenal Biopsies</t>
-  </si>
-  <si>
-    <t>Influence of Variations of Systemic Venous Return on Analgesia Nociception Index (ANI) During General Anaesthesia</t>
-  </si>
-  <si>
-    <t>Morning / Afternoon Variation in Myocardial Ischemia Tolerance</t>
-  </si>
-  <si>
-    <t>Comparison of the Hemodynamic Effect Between the Paravertebral Block and Thoracic Epidural in Esophageal Surgery With Thoracotomy .</t>
-  </si>
-  <si>
-    <t>Analgesic Efficacy of Transversus Abdominis Plane (TAP) Block After Lumbar Spine Surgery Through Anterior Approach (Anterior Lumbar or Direct Lateral Interbody Fusion): a Prospective, Randomized, Double-blind Placebo-controlled Study</t>
-  </si>
-  <si>
-    <t>Sleep Apnea Syndrome in Obese Women During Pregnancy</t>
-  </si>
-  <si>
-    <t>Task-dependent Operation of a Mechanism Intracortical Inhibition in Dystonia</t>
-  </si>
-  <si>
-    <t>Efficacité et tolérance du nilotinib chez les patients atteints d'une maladie chronique du greffon contre l’hôte (Graft Versus Host, GVH) n'ayant pas répondu à l'imatinib mésilate.</t>
-  </si>
-  <si>
-    <t>Efficacy and Safety of Nilotinib in Patients With a Chronic Disease of the Graft Against the Host (Graft Versus Host, GVH) Did Not Respond to Imatinib Mesylate.</t>
+    <t>Effectiveness of Two Stress Management Programs in the Adaptation Disorder With Anxiety (ADA) : Computer-based or Face- to -Face to Face Versus Control Group.Open Multicenter Prospective Randomized Controlled Therapeutic 3 Parallel Groups</t>
+  </si>
+  <si>
+    <t>Randomized Controlled Trial Comparing Laparoscopic Sacropexy and Vaginal Mesh Surgery for Women Cystocele Repair: Functional and Anatomical Results at Four Years Follow-up</t>
+  </si>
+  <si>
+    <t>Preventive EXACYL® on Perioperative Bleeding During Orthognathism of Maxillary Surgery</t>
+  </si>
+  <si>
+    <t>Assessment of the IgG Trough Level in Subjects With Primary Immunodeficiency Switching From Standard Subcutaneous Immunoglobulin (SCIG) to Every Other Week HyQvia</t>
+  </si>
+  <si>
+    <t>Frequency of Occurrence of Dumping Syndrome After Operation of Esophageal Atresia Type III</t>
+  </si>
+  <si>
+    <t>Safety Study of P28GST Treatment in Crohn's Disease Patients, a Multicenter Phase 2 Clinical Trial</t>
   </si>
   <si>
     <t>Pilot Study of the Feasibility of Intrapleural Photodynamic Therapy in a Multimodal Treatment Combining Extended Pleurectomy/Decortication, Adjuvant Chemotherapy and Prophylactic Radiotherapy in Patients With Malignant Pleural Mesothelioma</t>
   </si>
   <si>
-    <t>Frequency of Occurrence of Dumping Syndrome After Operation of Esophageal Atresia Type III</t>
-  </si>
-  <si>
-    <t>Randomized Controlled Trial Comparing Laparoscopic Sacropexy and Vaginal Mesh Surgery for Women Cystocele Repair: Functional and Anatomical Results at Four Years Follow-up</t>
-  </si>
-  <si>
-    <t>Assessment of the IgG Trough Level in Subjects With Primary Immunodeficiency Switching From Standard Subcutaneous Immunoglobulin (SCIG) to Every Other Week HyQvia</t>
-  </si>
-  <si>
-    <t>Effectiveness of Two Stress Management Programs in the Adaptation Disorder With Anxiety (ADA) : Computer-based or Face- to -Face to Face Versus Control Group.Open Multicenter Prospective Randomized Controlled Therapeutic 3 Parallel Groups</t>
-  </si>
-  <si>
-    <t>Safety Study of P28GST Treatment in Crohn's Disease Patients, a Multicenter Phase 2 Clinical Trial</t>
-  </si>
-  <si>
-    <t>Preventive EXACYL® on Perioperative Bleeding During Orthognathism of Maxillary Surgery</t>
+    <t>Validation of an Accelerated Procedure of Selection in Early Liver Transplantation for Severe Alcoholic Hepatitis Not Responding to Medical Treatment QuickTransHAA.</t>
+  </si>
+  <si>
+    <t>Qualitative Study of the Impact of the Birth of a Child With a Rare Abdomino-thoracic Malformation on the Parental Adjustment of the First Year</t>
+  </si>
+  <si>
+    <t>Perioperative Gabapentin for Chronic Post-thoracotomy Pain: a Randomized, Double Blind, Placebo-controlled Study.</t>
+  </si>
+  <si>
+    <t>Evaluation of the Expression of Natural Killer T Cells (NKT) Marker in the Gut of Patients With Primary Sclerosing Cholangitis (PSC) Complicated by an Inflammatory Bowel Disease (IBD)</t>
+  </si>
+  <si>
+    <t>Impact of Infiltration in the Region of the Palatine Ganglion Spheno by Ropivacaine on Postoperative Pain in the Setting of Endoscopic Sinonasal Surgery.</t>
+  </si>
+  <si>
+    <t>French Language Validation of the Phone Version of the Montreal Cognitive Assessment (MoCA)</t>
+  </si>
+  <si>
+    <t>Detection of Usability Errors of a Medical Device Zeneo®</t>
+  </si>
+  <si>
+    <t>Comparison of Haemodynamic Effects During Orotracheal Intubation, by Direct or Indirect Laryngoscopy With Airtraq, Controlled, Prospective, Randomized, Simple-blind, Monocentric Study at the Lille University Hospital Specialties Block.</t>
+  </si>
+  <si>
+    <t>Effect of Monoclonal Anti-cd303 on the Inhibition of Type I Interferon Secretion in the Peripheral Blood of Patients With Autoimmune Diseases</t>
+  </si>
+  <si>
+    <t>Management of Pain Post Hepatectomy : Infiltration of Local Anesthetics Versus Continuous Spinal Analgesia .</t>
+  </si>
+  <si>
+    <t>Comparison of McGrath and Macintosh Laryngoscopes for Insertion of a Double Lumen Tube by Residents</t>
+  </si>
+  <si>
+    <t>Prognostic Value of Functional Exercise Test (EFX) in Cystic Fibrosis</t>
   </si>
   <si>
     <t>Effect of Hyperbaric Oxygen Therapy on Healthy Volunteers Microcirculation</t>
   </si>
   <si>
-    <t>Perioperative Gabapentin for Chronic Post-thoracotomy Pain: a Randomized, Double Blind, Placebo-controlled Study.</t>
-  </si>
-  <si>
-    <t>Effect of Monoclonal Anti-cd303 on the Inhibition of Type I Interferon Secretion in the Peripheral Blood of Patients With Autoimmune Diseases</t>
-  </si>
-  <si>
-    <t>Impact of Infiltration in the Region of the Palatine Ganglion Spheno by Ropivacaine on Postoperative Pain in the Setting of Endoscopic Sinonasal Surgery.</t>
+    <t>Use of Biological Mesh Versus Standard Wound Care in Infected Incisional Ventral Hernias: a Multicenter Randomized Controlled Trial, the SIMBIOSE Study</t>
+  </si>
+  <si>
+    <t>First Episode of Anterior Glenohumeral Dislocation in Adult Patients Under 25 Years of Age: Anterior Capsulo-labral Reinsertion by Arthroscopic Approach Versus Immobilization "</t>
+  </si>
+  <si>
+    <t>Evaluation of the Efficacy of an Antibiotic Combined With Standard Treatment in Severe Alcoholic Hepatitis</t>
   </si>
   <si>
     <t>Impact of Muscular Fatigability on Spastic Co-contractions Between the Quadriceps and Hamstrings in Stroke Patients</t>
-  </si>
-  <si>
-    <t>Management of Pain Post Hepatectomy : Infiltration of Local Anesthetics Versus Continuous Spinal Analgesia .</t>
-  </si>
-  <si>
-    <t>Evaluation of the Expression of Natural Killer T Cells (NKT) Marker in the Gut of Patients With Primary Sclerosing Cholangitis (PSC) Complicated by an Inflammatory Bowel Disease (IBD)</t>
-  </si>
-  <si>
-    <t>Qualitative Study of the Impact of the Birth of a Child With a Rare Abdomino-thoracic Malformation on the Parental Adjustment of the First Year</t>
-  </si>
-  <si>
-    <t>French Language Validation of the Phone Version of the Montreal Cognitive Assessment (MoCA)</t>
-  </si>
-  <si>
-    <t>Validation of an Accelerated Procedure of Selection in Early Liver Transplantation for Severe Alcoholic Hepatitis Not Responding to Medical Treatment QuickTransHAA.</t>
-  </si>
-  <si>
-    <t>Comparison of Haemodynamic Effects During Orotracheal Intubation, by Direct or Indirect Laryngoscopy With Airtraq, Controlled, Prospective, Randomized, Simple-blind, Monocentric Study at the Lille University Hospital Specialties Block.</t>
-  </si>
-  <si>
-    <t>Comparison of McGrath and Macintosh Laryngoscopes for Insertion of a Double Lumen Tube by Residents</t>
-  </si>
-  <si>
-    <t>First Episode of Anterior Glenohumeral Dislocation in Adult Patients Under 25 Years of Age: Anterior Capsulo-labral Reinsertion by Arthroscopic Approach Versus Immobilization "</t>
-  </si>
-  <si>
-    <t>Evaluation of the Efficacy of an Antibiotic Combined With Standard Treatment in Severe Alcoholic Hepatitis</t>
-  </si>
-  <si>
-    <t>Detection of Usability Errors of a Medical Device Zeneo®</t>
-  </si>
-  <si>
-    <t>Use of Biological Mesh Versus Standard Wound Care in Infected Incisional Ventral Hernias: a Multicenter Randomized Controlled Trial, the SIMBIOSE Study</t>
-  </si>
-  <si>
-    <t>Prognostic Value of Functional Exercise Test (EFX) in Cystic Fibrosis</t>
-  </si>
-  <si>
-    <t>Phase II Study Evaluating the Interest of Vismodegib as Neo-adjuvant Treatment of Basal Cell Carcinoma (BCC)</t>
-  </si>
-  <si>
-    <t>Interscalene Block and Dysfunction Diaphragmatic: Effect of Low Volume of Ropivacaine 0,1%. A Randomised, Controlled Trial</t>
   </si>
   <si>
     <t>Conservative iron chelation as a disease-modifying strategy in Parkinson’s disease 
  Chélation conservatrice du fer comme stratégie thérapeutique susceptible de ralentir la progression de la maladie de Parkinson</t>
   </si>
   <si>
+    <t>Interscalene Block and Dysfunction Diaphragmatic: Effect of Low Volume of Ropivacaine 0,1%. A Randomised, Controlled Trial</t>
+  </si>
+  <si>
+    <t>Results of Botulinum Toxin Injections for Cervical Dystonia : Benefits of Ultrasonography</t>
+  </si>
+  <si>
+    <t>Assessing the Impact of an Educational Personalized Clinical Support Device Preventive and a Referent Nurse in Surgery for Obesity With the Risk of Occurrence of Dumping Syndrome After Gastric Bypass.</t>
+  </si>
+  <si>
+    <t>Conservative Iron Chelation as a Disease-modifying Strategy in Parkinson's Disease. European Multicentre, Parallel-group, Placebo-controlled, Randomized Clinical Trial of Deferiprone"</t>
+  </si>
+  <si>
+    <t>Modulation of Oxidative Stress and Apoptosis of Energy Metabolism by Deferiprone From the Circulating Lymphocytes of Patients With Parkinson's Disease or Amyotrophic Lateral Sclerosis</t>
+  </si>
+  <si>
+    <t>Randomized, Single-blind Study of Remote Ischemic Preconditioning in Hepatectomies</t>
+  </si>
+  <si>
     <t>Stoke Volume Measurements During Changes in Cardiac Preload: Are Pulse Contour Analysis (CLEARSIGHT) and Transthoracic Bioelectrical Impedance (NICCOMO) Equivalent?</t>
   </si>
   <si>
+    <t>A Multicenter Open Label Phase II Study of Daratumumab in Combination With Dexamethasone in Multiple Myeloma Resistant or Refractory to Bortezomib and Lenalidomide and Pomalidomide - an IFM 2014-04 Study</t>
+  </si>
+  <si>
+    <t>Analgesic Efficacy of the Pectoral Nerve Block Type 1 for Breast Subpectoral Implant Surgery: A Randomized Controlled Study</t>
+  </si>
+  <si>
+    <t>Prospective Randomized Study Evaluating the Effect of Pre-operative Hypnosis on Anesthesia, Analgesia and Perioperative Stress Laparoscopic Ileo-caecal Resections of Crohn's Disease.</t>
+  </si>
+  <si>
+    <t>Determinants of Patients' Uptake of Therapeutic Education Programme</t>
+  </si>
+  <si>
+    <t>Efficacy, Safety and Cost of Comprehensive Versus Standard Remote Monitoring of Patients With Cardiac Resynchronization Therapy</t>
+  </si>
+  <si>
+    <t>Phase II Study Evaluating the Interest of Vismodegib as Neo-adjuvant Treatment of Basal Cell Carcinoma (BCC)</t>
+  </si>
+  <si>
     <t>Continuous Non-invasive Cardiac Output, an Evaluation of ccNexfin© in a Pregnant Population</t>
   </si>
   <si>
-    <t>Randomized, Single-blind Study of Remote Ischemic Preconditioning in Hepatectomies</t>
-  </si>
-  <si>
-    <t>Conservative Iron Chelation as a Disease-modifying Strategy in Parkinson's Disease. European Multicentre, Parallel-group, Placebo-controlled, Randomized Clinical Trial of Deferiprone"</t>
-  </si>
-  <si>
-    <t>Modulation of Oxidative Stress and Apoptosis of Energy Metabolism by Deferiprone From the Circulating Lymphocytes of Patients With Parkinson's Disease or Amyotrophic Lateral Sclerosis</t>
-  </si>
-  <si>
-    <t>Efficacy, Safety and Cost of Comprehensive Versus Standard Remote Monitoring of Patients With Cardiac Resynchronization Therapy</t>
-  </si>
-  <si>
-    <t>A Multicenter Open Label Phase II Study of Daratumumab in Combination With Dexamethasone in Multiple Myeloma Resistant or Refractory to Bortezomib and Lenalidomide and Pomalidomide - an IFM 2014-04 Study</t>
-  </si>
-  <si>
-    <t>Analgesic Efficacy of the Pectoral Nerve Block Type 1 for Breast Subpectoral Implant Surgery: A Randomized Controlled Study</t>
-  </si>
-  <si>
-    <t>Determinants of Patients' Uptake of Therapeutic Education Programme</t>
-  </si>
-  <si>
-    <t>Prospective Randomized Study Evaluating the Effect of Pre-operative Hypnosis on Anesthesia, Analgesia and Perioperative Stress Laparoscopic Ileo-caecal Resections of Crohn's Disease.</t>
-  </si>
-  <si>
-    <t>Assessing the Impact of an Educational Personalized Clinical Support Device Preventive and a Referent Nurse in Surgery for Obesity With the Risk of Occurrence of Dumping Syndrome After Gastric Bypass.</t>
-  </si>
-  <si>
-    <t>Results of Botulinum Toxin Injections for Cervical Dystonia : Benefits of Ultrasonography</t>
-  </si>
-  <si>
     <t>Intraoperative Hemodynamic Optimization: Predictive Value to Fluid Respon-siveness of the Tidal Volume Challenge and the Lung Recruitment Maneuver by Monitoring the Variation of the Pulsed Pressure and the Variation of the Systolic Ejection Volume.</t>
   </si>
   <si>
+    <t>Benign Gynecologic Laparoscopic Surgery: Comparison of Conventional Trocars to the Teleflex® MiniLap® System in Length of Hospitalization, Pain and Aesthetics, a Randomized Study.</t>
+  </si>
+  <si>
     <t>Newborn Infant Parasympathetic Evaluation (NIPE) Index After Three Standardized Tetanic Stimulations (10, 30 and 60 Miliamps) Performed in a Randomized Sequence Under General Anesthesia in a Pediatric Population</t>
   </si>
   <si>
     <t>Pressure Therapy in the Treatment of Upper Arm of Cerebral Palsy Children</t>
   </si>
   <si>
+    <t>Cross Over Pilot Study for Evaluation of Pain Reduction in Patients With Chronic Low Back Pain (for More Than 3 Month) Using an Innovative Handheld Device</t>
+  </si>
+  <si>
+    <t>A Pilot Study of the Feasibility of Intraoperative Photodynamic Therapy of Glioblastoma.</t>
+  </si>
+  <si>
+    <t>Study of the Efficacy of the Treatment of Sleep Apnea Syndrome by CPAP in Pharmacoresistant Epilepsy</t>
+  </si>
+  <si>
     <t>Participation in Screening for Cervical Cancer: Interest of a Human Papillomavirus (HPV) Self-sampling Device Provided by the General Practitioner; a Cluster Randomized Clinical Trial</t>
   </si>
   <si>
-    <t>A Pilot Study of the Feasibility of Intraoperative Photodynamic Therapy of Glioblastoma.</t>
-  </si>
-  <si>
-    <t>Benign Gynecologic Laparoscopic Surgery: Comparison of Conventional Trocars to the Teleflex® MiniLap® System in Length of Hospitalization, Pain and Aesthetics, a Randomized Study.</t>
-  </si>
-  <si>
     <t>Evaluation of a Patient Prioritization Software for the Secondary Prioritization of Patients in the Pediatric Emergency Department</t>
   </si>
   <si>
-    <t>Study of the Efficacy of the Treatment of Sleep Apnea Syndrome by CPAP in Pharmacoresistant Epilepsy</t>
-  </si>
-  <si>
-    <t>Cross Over Pilot Study for Evaluation of Pain Reduction in Patients With Chronic Low Back Pain (for More Than 3 Month) Using an Innovative Handheld Device</t>
-  </si>
-  <si>
     <t>Development of a Real-time Signal Processing Algorithm, for Beat-beat Measurement of Fetal Heart Rate and Uterine Contractions by Coupling Non-invasive ABDOminal Sensors</t>
   </si>
   <si>
+    <t>Automatic Remifentanil Administration Guided by the Analgesia Nociception Index During Propofol Anesthesia</t>
+  </si>
+  <si>
     <t>Multimodal MRI-guided Repetitive Transcranial Magnetic Stimulation to Treat Drug-resistant Hallucinations: a Randomized Control Trial</t>
-  </si>
-  <si>
-    <t>Automatic Remifentanil Administration Guided by the Analgesia Nociception Index During Propofol Anesthesia</t>
   </si>
   <si>
     <t>Impact of Controlling Vascular Risk Factors on the Progression of Alzheimer's Disease</t>
@@ -873,301 +873,301 @@
     <t>MITOX</t>
   </si>
   <si>
+    <t>ACUVERSE</t>
+  </si>
+  <si>
     <t>FOGG-I</t>
   </si>
   <si>
-    <t>ACUVERSE</t>
+    <t>PARKGAIT-II</t>
+  </si>
+  <si>
+    <t>PREMEVA</t>
   </si>
   <si>
     <t>CorpentoxHAA</t>
   </si>
   <si>
-    <t>PREMEVA</t>
+    <t>PARGKAIT II</t>
+  </si>
+  <si>
+    <t>ANPATHY</t>
+  </si>
+  <si>
+    <t>Nosten</t>
   </si>
   <si>
     <t>FAIR-PARK-I</t>
   </si>
   <si>
-    <t>Nosten</t>
-  </si>
-  <si>
-    <t>PARKGAIT-II</t>
-  </si>
-  <si>
-    <t>PARGKAIT II</t>
-  </si>
-  <si>
-    <t>ANPATHY</t>
-  </si>
-  <si>
     <t>CHoPA-I</t>
   </si>
   <si>
+    <t>Vandevol</t>
+  </si>
+  <si>
+    <t>DIAMANT</t>
+  </si>
+  <si>
+    <t>PharmacogWP3</t>
+  </si>
+  <si>
     <t>EVOLUTION</t>
   </si>
   <si>
     <t>SEDUCE</t>
   </si>
   <si>
-    <t>Vandevol</t>
-  </si>
-  <si>
-    <t>PharmacogWP3</t>
-  </si>
-  <si>
-    <t>DIAMANT</t>
+    <t>ReVaPreF</t>
+  </si>
+  <si>
+    <t>RCPBALSTAT</t>
   </si>
   <si>
     <t>PACKING</t>
   </si>
   <si>
+    <t>ALGOS</t>
+  </si>
+  <si>
     <t>ANI_LARYNGO</t>
   </si>
   <si>
-    <t>RCPBALSTAT</t>
-  </si>
-  <si>
-    <t>ALGOS</t>
-  </si>
-  <si>
-    <t>ReVaPreF</t>
+    <t>IFM2009-02</t>
+  </si>
+  <si>
+    <t>SHE</t>
+  </si>
+  <si>
+    <t>ReVaPreF2</t>
+  </si>
+  <si>
+    <t>METAPERF</t>
   </si>
   <si>
     <t>PROSPERE</t>
   </si>
   <si>
-    <t>ReVaPreF2</t>
+    <t>BestCuff</t>
+  </si>
+  <si>
+    <t>IPI+RTS</t>
+  </si>
+  <si>
+    <t>IFM2010-02</t>
+  </si>
+  <si>
+    <t>ACCELORIX2</t>
   </si>
   <si>
     <t>PrevAtrophy</t>
   </si>
   <si>
-    <t>IFM2010-02</t>
-  </si>
-  <si>
-    <t>ACCELORIX2</t>
-  </si>
-  <si>
-    <t>SHE</t>
-  </si>
-  <si>
-    <t>IFM2009-02</t>
-  </si>
-  <si>
-    <t>BestCuff</t>
-  </si>
-  <si>
-    <t>IPI+RTS</t>
-  </si>
-  <si>
-    <t>METAPERF</t>
+    <t>TrauCC</t>
+  </si>
+  <si>
+    <t>COGCAR</t>
+  </si>
+  <si>
+    <t>DIAMA</t>
+  </si>
+  <si>
+    <t>ESSTIM</t>
   </si>
   <si>
     <t>SAFEFAIRALS</t>
   </si>
   <si>
+    <t>Equi-tee-shirt</t>
+  </si>
+  <si>
     <t>STAFE</t>
   </si>
   <si>
-    <t>Equi-tee-shirt</t>
-  </si>
-  <si>
-    <t>COGCAR</t>
-  </si>
-  <si>
-    <t>ESSTIM</t>
-  </si>
-  <si>
-    <t>TrauCC</t>
-  </si>
-  <si>
-    <t>DIAMA</t>
+    <t>Double ITK-GVHc</t>
+  </si>
+  <si>
+    <t>HEMOBLOC</t>
+  </si>
+  <si>
+    <t>TOMIS</t>
+  </si>
+  <si>
+    <t>3CRT</t>
+  </si>
+  <si>
+    <t>PHOS-ISTOS</t>
+  </si>
+  <si>
+    <t>TAP-LIF</t>
+  </si>
+  <si>
+    <t>KETALIDO</t>
   </si>
   <si>
     <t>CCR7-CD4-DPL</t>
   </si>
   <si>
-    <t>3CRT</t>
+    <t>LICIdystonie</t>
   </si>
   <si>
     <t>SERENAT</t>
   </si>
   <si>
-    <t>KETALIDO</t>
-  </si>
-  <si>
     <t>NeuroScS</t>
   </si>
   <si>
-    <t>PHOS-ISTOS</t>
+    <t>RV-WM-0426</t>
+  </si>
+  <si>
+    <t>DoubleITK</t>
   </si>
   <si>
     <t>ANI-MICI</t>
   </si>
   <si>
-    <t>RV-WM-0426</t>
-  </si>
-  <si>
-    <t>TOMIS</t>
-  </si>
-  <si>
-    <t>HEMOBLOC</t>
-  </si>
-  <si>
-    <t>TAP-LIF</t>
-  </si>
-  <si>
-    <t>LICIdystonie</t>
-  </si>
-  <si>
-    <t>Double ITK-GVHc</t>
-  </si>
-  <si>
-    <t>DoubleITK</t>
+    <t>Seren@ctif</t>
+  </si>
+  <si>
+    <t>PROSPERE4</t>
+  </si>
+  <si>
+    <t>LEFORTEXACYL</t>
+  </si>
+  <si>
+    <t>DUMPING</t>
+  </si>
+  <si>
+    <t>ACROHNEM</t>
   </si>
   <si>
     <t>MesoPDT</t>
   </si>
   <si>
-    <t>DUMPING</t>
-  </si>
-  <si>
-    <t>PROSPERE4</t>
-  </si>
-  <si>
-    <t>Seren@ctif</t>
-  </si>
-  <si>
-    <t>ACROHNEM</t>
-  </si>
-  <si>
-    <t>LEFORTEXACYL</t>
+    <t>QuickTrans</t>
+  </si>
+  <si>
+    <t>INEMAT</t>
+  </si>
+  <si>
+    <t>GABATHOMIE</t>
+  </si>
+  <si>
+    <t>NKT-CSP/MICI</t>
+  </si>
+  <si>
+    <t>ROPI_POSTOP</t>
+  </si>
+  <si>
+    <t>MoCATEL</t>
+  </si>
+  <si>
+    <t>HEMODAIRTRAQ</t>
+  </si>
+  <si>
+    <t>ANTI-CD303</t>
+  </si>
+  <si>
+    <t>CATHEPAT</t>
+  </si>
+  <si>
+    <t>MacGrathDES</t>
+  </si>
+  <si>
+    <t>EFX</t>
   </si>
   <si>
     <t>MICROHB</t>
   </si>
   <si>
-    <t>GABATHOMIE</t>
-  </si>
-  <si>
-    <t>ANTI-CD303</t>
-  </si>
-  <si>
-    <t>ROPI_POSTOP</t>
+    <t>SIMBIOSE</t>
+  </si>
+  <si>
+    <t>BANKART</t>
+  </si>
+  <si>
+    <t>AntibioCor</t>
   </si>
   <si>
     <t>COCON</t>
   </si>
   <si>
-    <t>CATHEPAT</t>
-  </si>
-  <si>
-    <t>NKT-CSP/MICI</t>
-  </si>
-  <si>
-    <t>INEMAT</t>
-  </si>
-  <si>
-    <t>MoCATEL</t>
-  </si>
-  <si>
-    <t>QuickTrans</t>
-  </si>
-  <si>
-    <t>HEMODAIRTRAQ</t>
-  </si>
-  <si>
-    <t>MacGrathDES</t>
-  </si>
-  <si>
-    <t>BANKART</t>
-  </si>
-  <si>
-    <t>AntibioCor</t>
-  </si>
-  <si>
-    <t>SIMBIOSE</t>
-  </si>
-  <si>
-    <t>EFX</t>
+    <t>FAIRPARK II</t>
+  </si>
+  <si>
+    <t>NUMEROBIS</t>
+  </si>
+  <si>
+    <t>RINOCERAUS</t>
+  </si>
+  <si>
+    <t>IRCO</t>
+  </si>
+  <si>
+    <t>FAIRPARKII</t>
+  </si>
+  <si>
+    <t>LymphoEnergy</t>
+  </si>
+  <si>
+    <t>HEPATOPROTECT</t>
+  </si>
+  <si>
+    <t>ConBi-Car</t>
+  </si>
+  <si>
+    <t>IFM2014-04</t>
+  </si>
+  <si>
+    <t>HYSTERIA</t>
+  </si>
+  <si>
+    <t>UTEP</t>
+  </si>
+  <si>
+    <t>ECOST-CRT</t>
   </si>
   <si>
     <t>VISMONEO</t>
   </si>
   <si>
-    <t>NUMEROBIS</t>
-  </si>
-  <si>
-    <t>FAIRPARK II</t>
-  </si>
-  <si>
-    <t>ConBi-Car</t>
-  </si>
-  <si>
     <t>CoNex</t>
   </si>
   <si>
-    <t>HEPATOPROTECT</t>
-  </si>
-  <si>
-    <t>FAIRPARKII</t>
-  </si>
-  <si>
-    <t>LymphoEnergy</t>
-  </si>
-  <si>
-    <t>ECOST-CRT</t>
-  </si>
-  <si>
-    <t>IFM2014-04</t>
-  </si>
-  <si>
-    <t>UTEP</t>
-  </si>
-  <si>
-    <t>HYSTERIA</t>
-  </si>
-  <si>
-    <t>IRCO</t>
-  </si>
-  <si>
-    <t>RINOCERAUS</t>
-  </si>
-  <si>
     <t>TIDALEC</t>
   </si>
   <si>
+    <t>MiniTroc</t>
+  </si>
+  <si>
     <t>NIPESTIM</t>
   </si>
   <si>
     <t>PROPENSIX</t>
   </si>
   <si>
+    <t>ATLAS</t>
+  </si>
+  <si>
+    <t>INDYGO</t>
+  </si>
+  <si>
+    <t>SASER</t>
+  </si>
+  <si>
     <t>PaCUDAHL-Gé</t>
   </si>
   <si>
-    <t>INDYGO</t>
-  </si>
-  <si>
-    <t>MiniTroc</t>
-  </si>
-  <si>
     <t>OPTIMUM</t>
   </si>
   <si>
-    <t>SASER</t>
-  </si>
-  <si>
-    <t>ATLAS</t>
-  </si>
-  <si>
     <t>RCF-ABDO</t>
   </si>
   <si>
+    <t>ANI-LOOP</t>
+  </si>
+  <si>
     <t>MULTIMODHAL</t>
-  </si>
-  <si>
-    <t>ANI-LOOP</t>
   </si>
   <si>
     <t>COVARAD</t>
@@ -1186,10 +1186,10 @@
     <t>DRUG</t>
   </si>
   <si>
+    <t>PROCEDURE</t>
+  </si>
+  <si>
     <t>OTHER</t>
-  </si>
-  <si>
-    <t>PROCEDURE</t>
   </si>
   <si>
     <t>DEVICE</t>
@@ -1679,10 +1679,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1693,19 +1693,16 @@
       <c r="G6" t="s">
         <v>163</v>
       </c>
-      <c r="H6" t="s">
-        <v>284</v>
-      </c>
       <c r="I6" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -1715,6 +1712,9 @@
       </c>
       <c r="G7" t="s">
         <v>164</v>
+      </c>
+      <c r="H7" t="s">
+        <v>284</v>
       </c>
       <c r="I7" t="s">
         <v>390</v>
@@ -1760,7 +1760,7 @@
         <v>285</v>
       </c>
       <c r="I9" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1783,7 +1783,7 @@
         <v>286</v>
       </c>
       <c r="I10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1872,15 +1872,15 @@
         <v>171</v>
       </c>
       <c r="H14" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -1892,10 +1892,10 @@
         <v>172</v>
       </c>
       <c r="H15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I15" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1915,10 +1915,10 @@
         <v>173</v>
       </c>
       <c r="H16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I16" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1938,15 +1938,15 @@
         <v>174</v>
       </c>
       <c r="H17" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
@@ -1989,10 +1989,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
@@ -2003,19 +2003,16 @@
       <c r="G20" t="s">
         <v>177</v>
       </c>
-      <c r="H20" t="s">
-        <v>295</v>
-      </c>
       <c r="I20" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
@@ -2027,7 +2024,7 @@
         <v>178</v>
       </c>
       <c r="H21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I21" t="s">
         <v>388</v>
@@ -2050,18 +2047,18 @@
         <v>179</v>
       </c>
       <c r="H22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I22" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
@@ -2072,8 +2069,11 @@
       <c r="G23" t="s">
         <v>180</v>
       </c>
+      <c r="H23" t="s">
+        <v>297</v>
+      </c>
       <c r="I23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2096,15 +2096,15 @@
         <v>298</v>
       </c>
       <c r="I24" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
@@ -2119,15 +2119,15 @@
         <v>299</v>
       </c>
       <c r="I25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
@@ -2142,15 +2142,15 @@
         <v>300</v>
       </c>
       <c r="I26" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
@@ -2161,8 +2161,11 @@
       <c r="G27" t="s">
         <v>184</v>
       </c>
+      <c r="H27" t="s">
+        <v>301</v>
+      </c>
       <c r="I27" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2182,18 +2185,18 @@
         <v>185</v>
       </c>
       <c r="H28" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
@@ -2205,10 +2208,10 @@
         <v>186</v>
       </c>
       <c r="H29" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I29" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2228,10 +2231,10 @@
         <v>187</v>
       </c>
       <c r="H30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I30" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2250,19 +2253,16 @@
       <c r="G31" t="s">
         <v>188</v>
       </c>
-      <c r="H31" t="s">
-        <v>304</v>
-      </c>
       <c r="I31" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
@@ -2273,16 +2273,19 @@
       <c r="G32" t="s">
         <v>189</v>
       </c>
+      <c r="H32" t="s">
+        <v>305</v>
+      </c>
       <c r="I32" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
         <v>46</v>
@@ -2293,11 +2296,8 @@
       <c r="G33" t="s">
         <v>190</v>
       </c>
-      <c r="H33" t="s">
-        <v>305</v>
-      </c>
       <c r="I33" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2320,7 +2320,7 @@
         <v>306</v>
       </c>
       <c r="I34" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2343,15 +2343,15 @@
         <v>307</v>
       </c>
       <c r="I35" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
         <v>49</v>
@@ -2366,15 +2366,15 @@
         <v>308</v>
       </c>
       <c r="I36" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
         <v>50</v>
@@ -2389,15 +2389,15 @@
         <v>309</v>
       </c>
       <c r="I37" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
         <v>51</v>
@@ -2412,15 +2412,15 @@
         <v>310</v>
       </c>
       <c r="I38" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
         <v>52</v>
@@ -2435,15 +2435,15 @@
         <v>311</v>
       </c>
       <c r="I39" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
         <v>53</v>
@@ -2458,15 +2458,15 @@
         <v>312</v>
       </c>
       <c r="I40" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
         <v>54</v>
@@ -2481,7 +2481,7 @@
         <v>313</v>
       </c>
       <c r="I41" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2523,11 +2523,8 @@
       <c r="G43" t="s">
         <v>200</v>
       </c>
-      <c r="H43" t="s">
-        <v>315</v>
-      </c>
       <c r="I43" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2547,15 +2544,15 @@
         <v>201</v>
       </c>
       <c r="I44" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
         <v>58</v>
@@ -2567,10 +2564,10 @@
         <v>202</v>
       </c>
       <c r="H45" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2590,10 +2587,10 @@
         <v>203</v>
       </c>
       <c r="H46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I46" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2613,10 +2610,10 @@
         <v>204</v>
       </c>
       <c r="H47" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I47" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2635,16 +2632,19 @@
       <c r="G48" t="s">
         <v>205</v>
       </c>
+      <c r="H48" t="s">
+        <v>318</v>
+      </c>
       <c r="I48" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
         <v>62</v>
@@ -2656,7 +2656,7 @@
         <v>206</v>
       </c>
       <c r="I49" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2679,7 +2679,7 @@
         <v>319</v>
       </c>
       <c r="I50" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2702,15 +2702,15 @@
         <v>320</v>
       </c>
       <c r="I51" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
         <v>65</v>
@@ -2721,19 +2721,16 @@
       <c r="G52" t="s">
         <v>209</v>
       </c>
-      <c r="H52" t="s">
-        <v>321</v>
-      </c>
       <c r="I52" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
         <v>66</v>
@@ -2744,8 +2741,11 @@
       <c r="G53" t="s">
         <v>210</v>
       </c>
+      <c r="H53" t="s">
+        <v>321</v>
+      </c>
       <c r="I53" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2755,8 +2755,8 @@
       <c r="B54" t="s">
         <v>14</v>
       </c>
-      <c r="C54" t="s">
-        <v>67</v>
+      <c r="D54" t="s">
+        <v>137</v>
       </c>
       <c r="F54" t="s">
         <v>153</v>
@@ -2767,19 +2767,16 @@
       <c r="H54" t="s">
         <v>322</v>
       </c>
-      <c r="I54" t="s">
-        <v>387</v>
-      </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F55" t="s">
         <v>153</v>
@@ -2787,22 +2784,19 @@
       <c r="G55" t="s">
         <v>212</v>
       </c>
-      <c r="H55" t="s">
-        <v>323</v>
-      </c>
       <c r="I55" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F56" t="s">
         <v>153</v>
@@ -2811,21 +2805,21 @@
         <v>213</v>
       </c>
       <c r="H56" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I56" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F57" t="s">
         <v>153</v>
@@ -2834,21 +2828,21 @@
         <v>214</v>
       </c>
       <c r="H57" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I57" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F58" t="s">
         <v>153</v>
@@ -2857,10 +2851,10 @@
         <v>215</v>
       </c>
       <c r="H58" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I58" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2871,7 +2865,7 @@
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F59" t="s">
         <v>153</v>
@@ -2880,7 +2874,7 @@
         <v>216</v>
       </c>
       <c r="H59" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I59" t="s">
         <v>391</v>
@@ -2894,7 +2888,7 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F60" t="s">
         <v>153</v>
@@ -2903,7 +2897,7 @@
         <v>217</v>
       </c>
       <c r="H60" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I60" t="s">
         <v>391</v>
@@ -2911,13 +2905,13 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F61" t="s">
         <v>153</v>
@@ -2926,7 +2920,7 @@
         <v>218</v>
       </c>
       <c r="H61" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I61" t="s">
         <v>388</v>
@@ -2940,7 +2934,7 @@
         <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F62" t="s">
         <v>153</v>
@@ -2948,8 +2942,11 @@
       <c r="G62" t="s">
         <v>219</v>
       </c>
+      <c r="H62" t="s">
+        <v>329</v>
+      </c>
       <c r="I62" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2960,7 +2957,7 @@
         <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F63" t="s">
         <v>153</v>
@@ -2968,19 +2965,22 @@
       <c r="G63" t="s">
         <v>220</v>
       </c>
+      <c r="H63" t="s">
+        <v>330</v>
+      </c>
       <c r="I63" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F64" t="s">
         <v>153</v>
@@ -2989,7 +2989,7 @@
         <v>221</v>
       </c>
       <c r="H64" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I64" t="s">
         <v>390</v>
@@ -3003,7 +3003,7 @@
         <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F65" t="s">
         <v>153</v>
@@ -3011,11 +3011,8 @@
       <c r="G65" t="s">
         <v>222</v>
       </c>
-      <c r="H65" t="s">
-        <v>331</v>
-      </c>
       <c r="I65" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3026,7 +3023,7 @@
         <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F66" t="s">
         <v>153</v>
@@ -3034,22 +3031,19 @@
       <c r="G66" t="s">
         <v>223</v>
       </c>
-      <c r="H66" t="s">
-        <v>332</v>
-      </c>
       <c r="I66" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F67" t="s">
         <v>153</v>
@@ -3057,19 +3051,22 @@
       <c r="G67" t="s">
         <v>224</v>
       </c>
+      <c r="H67" t="s">
+        <v>332</v>
+      </c>
       <c r="I67" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F68" t="s">
         <v>153</v>
@@ -3081,7 +3078,7 @@
         <v>333</v>
       </c>
       <c r="I68" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3091,8 +3088,8 @@
       <c r="B69" t="s">
         <v>14</v>
       </c>
-      <c r="D69" t="s">
-        <v>137</v>
+      <c r="C69" t="s">
+        <v>81</v>
       </c>
       <c r="F69" t="s">
         <v>153</v>
@@ -3103,6 +3100,9 @@
       <c r="H69" t="s">
         <v>334</v>
       </c>
+      <c r="I69" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
@@ -3124,15 +3124,15 @@
         <v>335</v>
       </c>
       <c r="I70" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C71" t="s">
         <v>83</v>
@@ -3147,15 +3147,15 @@
         <v>336</v>
       </c>
       <c r="I71" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
         <v>84</v>
@@ -3170,7 +3170,7 @@
         <v>337</v>
       </c>
       <c r="I72" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3193,7 +3193,7 @@
         <v>338</v>
       </c>
       <c r="I73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3218,10 +3218,10 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
         <v>87</v>
@@ -3236,7 +3236,7 @@
         <v>339</v>
       </c>
       <c r="I75" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3282,15 +3282,15 @@
         <v>341</v>
       </c>
       <c r="I77" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
         <v>90</v>
@@ -3305,7 +3305,7 @@
         <v>342</v>
       </c>
       <c r="I78" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3328,7 +3328,7 @@
         <v>343</v>
       </c>
       <c r="I79" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3351,15 +3351,15 @@
         <v>344</v>
       </c>
       <c r="I80" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C81" t="s">
         <v>93</v>
@@ -3374,15 +3374,15 @@
         <v>345</v>
       </c>
       <c r="I81" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C82" t="s">
         <v>94</v>
@@ -3397,7 +3397,7 @@
         <v>346</v>
       </c>
       <c r="I82" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3420,7 +3420,7 @@
         <v>347</v>
       </c>
       <c r="I83" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3439,11 +3439,8 @@
       <c r="G84" t="s">
         <v>241</v>
       </c>
-      <c r="H84" t="s">
-        <v>348</v>
-      </c>
       <c r="I84" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3463,10 +3460,10 @@
         <v>242</v>
       </c>
       <c r="H85" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I85" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3486,18 +3483,18 @@
         <v>243</v>
       </c>
       <c r="H86" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I86" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C87" t="s">
         <v>99</v>
@@ -3509,10 +3506,10 @@
         <v>244</v>
       </c>
       <c r="H87" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I87" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3532,7 +3529,7 @@
         <v>245</v>
       </c>
       <c r="H88" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I88" t="s">
         <v>391</v>
@@ -3555,18 +3552,18 @@
         <v>246</v>
       </c>
       <c r="H89" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I89" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C90" t="s">
         <v>102</v>
@@ -3578,18 +3575,18 @@
         <v>247</v>
       </c>
       <c r="H90" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I90" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C91" t="s">
         <v>103</v>
@@ -3601,18 +3598,18 @@
         <v>248</v>
       </c>
       <c r="H91" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I91" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C92" t="s">
         <v>104</v>
@@ -3623,16 +3620,19 @@
       <c r="G92" t="s">
         <v>249</v>
       </c>
+      <c r="H92" t="s">
+        <v>355</v>
+      </c>
       <c r="I92" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C93" t="s">
         <v>105</v>
@@ -3647,7 +3647,7 @@
         <v>356</v>
       </c>
       <c r="I93" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3680,8 +3680,8 @@
       <c r="B95" t="s">
         <v>14</v>
       </c>
-      <c r="C95" t="s">
-        <v>107</v>
+      <c r="D95" t="s">
+        <v>138</v>
       </c>
       <c r="F95" t="s">
         <v>156</v>
@@ -3692,9 +3692,6 @@
       <c r="H95" t="s">
         <v>358</v>
       </c>
-      <c r="I95" t="s">
-        <v>388</v>
-      </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
@@ -3704,7 +3701,7 @@
         <v>14</v>
       </c>
       <c r="C96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F96" t="s">
         <v>156</v>
@@ -3726,8 +3723,8 @@
       <c r="B97" t="s">
         <v>14</v>
       </c>
-      <c r="D97" t="s">
-        <v>138</v>
+      <c r="C97" t="s">
+        <v>108</v>
       </c>
       <c r="F97" t="s">
         <v>156</v>
@@ -3738,6 +3735,9 @@
       <c r="H97" t="s">
         <v>360</v>
       </c>
+      <c r="I97" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
@@ -3759,15 +3759,15 @@
         <v>361</v>
       </c>
       <c r="I98" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C99" t="s">
         <v>110</v>
@@ -3782,7 +3782,7 @@
         <v>362</v>
       </c>
       <c r="I99" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3805,15 +3805,15 @@
         <v>363</v>
       </c>
       <c r="I100" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C101" t="s">
         <v>112</v>
@@ -3828,7 +3828,7 @@
         <v>364</v>
       </c>
       <c r="I101" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3851,7 +3851,7 @@
         <v>365</v>
       </c>
       <c r="I102" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3874,7 +3874,7 @@
         <v>366</v>
       </c>
       <c r="I103" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3893,9 +3893,6 @@
       <c r="G104" t="s">
         <v>261</v>
       </c>
-      <c r="H104" t="s">
-        <v>367</v>
-      </c>
       <c r="I104" t="s">
         <v>388</v>
       </c>
@@ -3916,8 +3913,11 @@
       <c r="G105" t="s">
         <v>262</v>
       </c>
+      <c r="H105" t="s">
+        <v>367</v>
+      </c>
       <c r="I105" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3940,7 +3940,7 @@
         <v>368</v>
       </c>
       <c r="I106" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3986,15 +3986,15 @@
         <v>370</v>
       </c>
       <c r="I108" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C109" t="s">
         <v>120</v>
@@ -4009,7 +4009,7 @@
         <v>371</v>
       </c>
       <c r="I109" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4032,15 +4032,15 @@
         <v>372</v>
       </c>
       <c r="I110" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C111" t="s">
         <v>122</v>
@@ -4055,7 +4055,7 @@
         <v>373</v>
       </c>
       <c r="I111" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4078,7 +4078,7 @@
         <v>374</v>
       </c>
       <c r="I112" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4106,10 +4106,10 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C114" t="s">
         <v>125</v>
@@ -4129,10 +4129,10 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C115" t="s">
         <v>126</v>
@@ -4170,15 +4170,15 @@
         <v>378</v>
       </c>
       <c r="I116" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C117" t="s">
         <v>128</v>
@@ -4216,7 +4216,7 @@
         <v>380</v>
       </c>
       <c r="I118" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4244,10 +4244,10 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C120" t="s">
         <v>131</v>
@@ -4267,10 +4267,10 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C121" t="s">
         <v>132</v>
@@ -4308,7 +4308,7 @@
         <v>384</v>
       </c>
       <c r="I122" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="123" spans="1:9">

--- a/publipostage2/02ppyfa04/liste_essais_cliniques_identifies_02ppyfa04.xlsx
+++ b/publipostage2/02ppyfa04/liste_essais_cliniques_identifies_02ppyfa04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="412">
   <si>
     <t>statut</t>
   </si>
@@ -55,16 +55,16 @@
     <t>2</t>
   </si>
   <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
   </si>
   <si>
     <t>NCT01512277</t>
@@ -79,58 +79,70 @@
     <t>NCT00122057</t>
   </si>
   <si>
+    <t>NCT02385565</t>
+  </si>
+  <si>
     <t>NCT00446264</t>
   </si>
   <si>
-    <t>NCT02385565</t>
+    <t>NCT01487590</t>
+  </si>
+  <si>
+    <t>NCT01108029</t>
   </si>
   <si>
     <t>NCT01082666</t>
   </si>
   <si>
-    <t>NCT01487590</t>
-  </si>
-  <si>
-    <t>NCT01108029</t>
+    <t>NCT00642980</t>
+  </si>
+  <si>
+    <t>NCT01214226</t>
+  </si>
+  <si>
+    <t>NCT00943748</t>
+  </si>
+  <si>
+    <t>NCT01351259</t>
   </si>
   <si>
     <t>NCT00914095</t>
   </si>
   <si>
-    <t>NCT00642980</t>
-  </si>
-  <si>
-    <t>NCT01214226</t>
-  </si>
-  <si>
     <t>NCT01679093</t>
   </si>
   <si>
-    <t>NCT01351259</t>
-  </si>
-  <si>
-    <t>NCT00943748</t>
-  </si>
-  <si>
     <t>NCT00767091</t>
   </si>
   <si>
+    <t>NCT01487395</t>
+  </si>
+  <si>
+    <t>NCT00639964</t>
+  </si>
+  <si>
+    <t>NCT01295736</t>
+  </si>
+  <si>
+    <t>NCT01279096</t>
+  </si>
+  <si>
     <t>NCT01415219</t>
   </si>
   <si>
-    <t>NCT01279096</t>
-  </si>
-  <si>
-    <t>NCT00639964</t>
-  </si>
-  <si>
-    <t>NCT01487395</t>
-  </si>
-  <si>
     <t>NCT00766519</t>
   </si>
   <si>
-    <t>NCT01295736</t>
+    <t>NCT01123174</t>
+  </si>
+  <si>
+    <t>NCT03164746</t>
+  </si>
+  <si>
+    <t>NCT01341002</t>
+  </si>
+  <si>
+    <t>NCT04354311</t>
   </si>
   <si>
     <t>NCT03066362</t>
@@ -139,16 +151,25 @@
     <t>NCT01965821</t>
   </si>
   <si>
-    <t>NCT03164746</t>
-  </si>
-  <si>
-    <t>NCT01123174</t>
-  </si>
-  <si>
-    <t>NCT04354311</t>
-  </si>
-  <si>
-    <t>NCT01341002</t>
+    <t>NCT01637441</t>
+  </si>
+  <si>
+    <t>NCT01948635</t>
+  </si>
+  <si>
+    <t>NCT02844101</t>
+  </si>
+  <si>
+    <t>NCT02250755</t>
+  </si>
+  <si>
+    <t>NCT01745640</t>
+  </si>
+  <si>
+    <t>NCT02662725</t>
+  </si>
+  <si>
+    <t>NCT03066375</t>
   </si>
   <si>
     <t>NCT01053949</t>
@@ -160,280 +181,328 @@
     <t>NCT01713504</t>
   </si>
   <si>
-    <t>NCT03066375</t>
-  </si>
-  <si>
-    <t>NCT02250755</t>
-  </si>
-  <si>
-    <t>NCT01637441</t>
-  </si>
-  <si>
-    <t>NCT01948635</t>
-  </si>
-  <si>
-    <t>NCT02662725</t>
-  </si>
-  <si>
-    <t>NCT01745640</t>
-  </si>
-  <si>
-    <t>NCT02844101</t>
-  </si>
-  <si>
     <t>NCT01641627</t>
   </si>
   <si>
+    <t>NCT04146675</t>
+  </si>
+  <si>
     <t>NCT03751787</t>
   </si>
   <si>
+    <t>NCT02213302</t>
+  </si>
+  <si>
+    <t>NCT02154178</t>
+  </si>
+  <si>
+    <t>NCT02242955</t>
+  </si>
+  <si>
+    <t>NCT00946959</t>
+  </si>
+  <si>
     <t>NCT01622400</t>
   </si>
   <si>
+    <t>NCT02364908</t>
+  </si>
+  <si>
     <t>NCT02750150</t>
   </si>
   <si>
-    <t>NCT00946959</t>
-  </si>
-  <si>
-    <t>NCT02242955</t>
-  </si>
-  <si>
-    <t>NCT02364908</t>
-  </si>
-  <si>
-    <t>NCT02213302</t>
+    <t>NCT01123187</t>
   </si>
   <si>
     <t>NCT02164253</t>
   </si>
   <si>
-    <t>NCT04146675</t>
-  </si>
-  <si>
-    <t>NCT01123187</t>
-  </si>
-  <si>
-    <t>NCT02154178</t>
+    <t>NCT02778178</t>
+  </si>
+  <si>
+    <t>NCT02891395</t>
+  </si>
+  <si>
+    <t>NCT02969733</t>
+  </si>
+  <si>
+    <t>NCT03185403</t>
+  </si>
+  <si>
+    <t>NCT03076892</t>
+  </si>
+  <si>
+    <t>NCT02905071</t>
   </si>
   <si>
     <t>NCT02193412</t>
   </si>
   <si>
-    <t>NCT03185403</t>
+    <t>NCT02902016</t>
   </si>
   <si>
     <t>NCT02812901</t>
   </si>
   <si>
+    <t>NCT03749304</t>
+  </si>
+  <si>
+    <t>NCT02302469</t>
+  </si>
+  <si>
+    <t>NCT03381456</t>
+  </si>
+  <si>
+    <t>NCT03509805</t>
+  </si>
+  <si>
     <t>NCT03286660</t>
   </si>
   <si>
-    <t>NCT03076892</t>
-  </si>
-  <si>
-    <t>NCT02778178</t>
-  </si>
-  <si>
-    <t>NCT02969733</t>
+    <t>NCT01488214</t>
   </si>
   <si>
     <t>NCT03280290</t>
   </si>
   <si>
-    <t>NCT03381456</t>
-  </si>
-  <si>
-    <t>NCT02905071</t>
-  </si>
-  <si>
-    <t>NCT03509805</t>
-  </si>
-  <si>
-    <t>NCT02902016</t>
-  </si>
-  <si>
-    <t>NCT01488214</t>
-  </si>
-  <si>
-    <t>NCT02302469</t>
-  </si>
-  <si>
-    <t>NCT02891395</t>
-  </si>
-  <si>
-    <t>NCT03749304</t>
+    <t>NCT02881437</t>
+  </si>
+  <si>
+    <t>NCT02662504</t>
+  </si>
+  <si>
+    <t>NCT02525705</t>
+  </si>
+  <si>
+    <t>NCT02272361</t>
+  </si>
+  <si>
+    <t>NCT02702128</t>
+  </si>
+  <si>
+    <t>NCT02281916</t>
   </si>
   <si>
     <t>NCT02621775</t>
   </si>
   <si>
-    <t>NCT02272361</t>
-  </si>
-  <si>
-    <t>NCT02702128</t>
-  </si>
-  <si>
-    <t>NCT02881437</t>
-  </si>
-  <si>
-    <t>NCT02525705</t>
-  </si>
-  <si>
-    <t>NCT02281916</t>
-  </si>
-  <si>
-    <t>NCT02662504</t>
-  </si>
-  <si>
     <t>NCT01756794</t>
   </si>
   <si>
+    <t>NCT03808246</t>
+  </si>
+  <si>
+    <t>NCT02281929</t>
+  </si>
+  <si>
     <t>NCT03565822</t>
   </si>
   <si>
+    <t>NCT03743831</t>
+  </si>
+  <si>
+    <t>NCT03980210</t>
+  </si>
+  <si>
+    <t>NCT03232697</t>
+  </si>
+  <si>
+    <t>NCT02821169</t>
+  </si>
+  <si>
+    <t>NCT03370627</t>
+  </si>
+  <si>
+    <t>NCT02884557</t>
+  </si>
+  <si>
+    <t>NCT01594450</t>
+  </si>
+  <si>
+    <t>NCT02994017</t>
+  </si>
+  <si>
+    <t>NCT03710096</t>
+  </si>
+  <si>
+    <t>NCT03315819</t>
+  </si>
+  <si>
+    <t>NCT03238430</t>
+  </si>
+  <si>
     <t>NCT03158376</t>
   </si>
   <si>
-    <t>NCT02884557</t>
-  </si>
-  <si>
-    <t>NCT02821169</t>
-  </si>
-  <si>
-    <t>NCT03232697</t>
-  </si>
-  <si>
-    <t>NCT03808246</t>
-  </si>
-  <si>
-    <t>NCT03743831</t>
-  </si>
-  <si>
-    <t>NCT03370627</t>
-  </si>
-  <si>
-    <t>NCT03238430</t>
-  </si>
-  <si>
-    <t>NCT03710096</t>
-  </si>
-  <si>
-    <t>NCT02994017</t>
-  </si>
-  <si>
-    <t>NCT03980210</t>
-  </si>
-  <si>
-    <t>NCT01594450</t>
-  </si>
-  <si>
-    <t>NCT03315819</t>
-  </si>
-  <si>
-    <t>NCT02281929</t>
-  </si>
-  <si>
     <t>NCT03342820</t>
   </si>
   <si>
+    <t>NCT04231656</t>
+  </si>
+  <si>
+    <t>NCT03261414</t>
+  </si>
+  <si>
+    <t>NCT02849236</t>
+  </si>
+  <si>
+    <t>NCT04181502</t>
+  </si>
+  <si>
+    <t>NCT02880033</t>
+  </si>
+  <si>
+    <t>NCT02655315</t>
+  </si>
+  <si>
+    <t>NCT02891330</t>
+  </si>
+  <si>
+    <t>NCT03255863</t>
+  </si>
+  <si>
+    <t>NCT02626481</t>
+  </si>
+  <si>
     <t>NCT04173364</t>
   </si>
   <si>
+    <t>NCT03012490</t>
+  </si>
+  <si>
+    <t>NCT03735043</t>
+  </si>
+  <si>
+    <t>NCT02667574</t>
+  </si>
+  <si>
     <t>NCT03946046</t>
   </si>
   <si>
-    <t>NCT02891330</t>
-  </si>
-  <si>
-    <t>NCT02655315</t>
-  </si>
-  <si>
-    <t>NCT02880033</t>
-  </si>
-  <si>
-    <t>NCT04181502</t>
-  </si>
-  <si>
-    <t>NCT04231656</t>
-  </si>
-  <si>
-    <t>NCT02626481</t>
-  </si>
-  <si>
-    <t>NCT02849236</t>
-  </si>
-  <si>
-    <t>NCT03261414</t>
-  </si>
-  <si>
-    <t>NCT03255863</t>
-  </si>
-  <si>
-    <t>NCT03012490</t>
-  </si>
-  <si>
-    <t>NCT02667574</t>
-  </si>
-  <si>
-    <t>NCT03735043</t>
+    <t>NCT02749110</t>
+  </si>
+  <si>
+    <t>NCT03726203</t>
   </si>
   <si>
     <t>NCT04535115</t>
   </si>
   <si>
-    <t>NCT03726203</t>
+    <t>NCT05994196</t>
+  </si>
+  <si>
+    <t>NCT03801941</t>
   </si>
   <si>
     <t>NCT04381637</t>
   </si>
   <si>
+    <t>NCT03200769</t>
+  </si>
+  <si>
     <t>NCT02086214</t>
   </si>
   <si>
-    <t>NCT03801941</t>
-  </si>
-  <si>
     <t>NCT03048240</t>
   </si>
   <si>
-    <t>NCT03200769</t>
-  </si>
-  <si>
-    <t>NCT02749110</t>
-  </si>
-  <si>
-    <t>NCT05994196</t>
-  </si>
-  <si>
     <t>NCT03741569</t>
   </si>
   <si>
+    <t>NCT01373866</t>
+  </si>
+  <si>
     <t>NCT03556696</t>
   </si>
   <si>
-    <t>NCT01373866</t>
-  </si>
-  <si>
     <t>NCT01423396</t>
   </si>
   <si>
     <t>NCT04332276</t>
   </si>
   <si>
+    <t>2006-006944-78</t>
+  </si>
+  <si>
     <t>2008-005801-20</t>
   </si>
   <si>
-    <t>2006-006944-78</t>
+    <t>2010-023989-51</t>
+  </si>
+  <si>
+    <t>2011-002081-20</t>
+  </si>
+  <si>
+    <t>2012-000852-32</t>
+  </si>
+  <si>
+    <t>2009-013319-36</t>
+  </si>
+  <si>
+    <t>2012-003336-23</t>
+  </si>
+  <si>
+    <t>2013-001228-21</t>
+  </si>
+  <si>
+    <t>2015-002143-34</t>
   </si>
   <si>
     <t>2012-000770-36</t>
   </si>
   <si>
+    <t>2009-017682-33</t>
+  </si>
+  <si>
+    <t>2013-002317-36</t>
+  </si>
+  <si>
+    <t>2008-006370-15</t>
+  </si>
+  <si>
+    <t>2016-001480-36</t>
+  </si>
+  <si>
+    <t>2015-001554-15</t>
+  </si>
+  <si>
+    <t>2015-002175-24</t>
+  </si>
+  <si>
+    <t>2013-000595-15</t>
+  </si>
+  <si>
+    <t>2014-002536-13</t>
+  </si>
+  <si>
+    <t>2013-004410-17</t>
+  </si>
+  <si>
+    <t>2014-003317-28</t>
+  </si>
+  <si>
+    <t>2014-005226-35</t>
+  </si>
+  <si>
+    <t>2016-000157-12</t>
+  </si>
+  <si>
     <t>2015-003679-31</t>
   </si>
   <si>
-    <t>2016-001480-36</t>
+    <t>2015-002221-19</t>
+  </si>
+  <si>
+    <t>2019-001984-62</t>
+  </si>
+  <si>
+    <t>2013-004338-13</t>
+  </si>
+  <si>
+    <t>2016-002706-39</t>
+  </si>
+  <si>
+    <t>2020-000155-12</t>
   </si>
   <si>
     <t>2024-517566-42-00</t>
@@ -505,64 +574,73 @@
     <t>Multicenter Randomized Study to Compare Induction Therapy With Polyclonal Antithymocytes Globulins (ATG) Versus Monoclonal Anti-IL2R Antibody (Daclizumab) in a Triple Drug Regimen in Renal Transplant Recipients With High Immunological Risk.</t>
   </si>
   <si>
+    <t>Effect Of The System In The Enriched Fat Metabolism Of The Child Reached Mitochondrial Cytopathy</t>
+  </si>
+  <si>
     <t>Sequential Islet Transplantation With Steroid Free Immunosuppression for Type 1 Diabetes</t>
   </si>
   <si>
-    <t>Effect Of The System In The Enriched Fat Metabolism Of The Child Reached Mitochondrial Cytopathy</t>
+    <t>A Simple Blind Controlled Randomized Trial: Cephalic Version by Acupuncture-moxibustion vs Placebo for Breech Presentation</t>
+  </si>
+  <si>
+    <t>Study of Memantine to Treat Gait Disorders And Attention Deficit In Parkinson's Disease: A Randomized, Double-Blind, Placebo-Controlled, Parallel-Group, Monocentric Trial</t>
   </si>
   <si>
     <t>Phase 4 Study of Continuous Control of Tracheal Cuff Pressure and Microaspiration in Critically Ill Patients</t>
   </si>
   <si>
-    <t>A Simple Blind Controlled Randomized Trial: Cephalic Version by Acupuncture-moxibustion vs Placebo for Breech Presentation</t>
-  </si>
-  <si>
-    <t>Study of Memantine to Treat Gait Disorders And Attention Deficit In Parkinson's Disease: A Randomized, Double-Blind, Placebo-Controlled, Parallel-Group, Monocentric Trial</t>
+    <t>Randomized Multicenter Trial for the Prevention of Preterm Delivery by Testing for and Treatment of Bacterial Vaginosis in the First Trimester of Pregnancy</t>
+  </si>
+  <si>
+    <t>Evaluation of the Survival Benefit of the Adjunction of Pentoxifylline to Corticosteroids in Patients Suffering From Severe Alcoholic Hepatitis</t>
+  </si>
+  <si>
+    <t>Efficacy and Safety of the Iron Chelator Deferiprone on Iron Overload in the Brain in Parkinson's Disease</t>
+  </si>
+  <si>
+    <t>Continuous Control of Polyurethane Tracheal-cuff Pressure: Efficiency of a Pneumatic Device</t>
+  </si>
+  <si>
+    <t>Etude d’efficacité et d’acceptabilité du méthylphénidate dans les troubles de la marche de la maladie de Parkinson : Etude multicentrique en double aveugle versus placebo.</t>
   </si>
   <si>
     <t>Study of Methylphenidate to Treat Gait Disorders And Attention Deficit In Parkinson's Disease: A Randomized, Double-Blind, Placebo-Controlled, Parallel-Group, Multicentric Trial</t>
   </si>
   <si>
-    <t>Randomized Multicenter Trial for the Prevention of Preterm Delivery by Testing for and Treatment of Bacterial Vaginosis in the First Trimester of Pregnancy</t>
-  </si>
-  <si>
-    <t>Evaluation of the Survival Benefit of the Adjunction of Pentoxifylline to Corticosteroids in Patients Suffering From Severe Alcoholic Hepatitis</t>
-  </si>
-  <si>
-    <t>Etude d’efficacité et d’acceptabilité du méthylphénidate dans les troubles de la marche de la maladie de Parkinson : Etude multicentrique en double aveugle versus placebo.</t>
-  </si>
-  <si>
     <t>Antagonism Research Between Antiemetics Agents (Droperidol, Dexametasone, Ondansetron) and Acetaminophen in Thyroidectomy's Post-operative Analgesia.</t>
   </si>
   <si>
-    <t>Continuous Control of Polyurethane Tracheal-cuff Pressure: Efficiency of a Pneumatic Device</t>
-  </si>
-  <si>
-    <t>Evaluation du bénéfice de survie lors de l'adjonction de pentoxifylline à la corticothérapie dans l'hépatite alcoolique sévère</t>
-  </si>
-  <si>
-    <t>Efficacy and Safety of the Iron Chelator Deferiprone on Iron Overload in the Brain in Parkinson's Disease</t>
-  </si>
-  <si>
     <t>A Randomized, Double-blind, Placebo-controlled, Parallel-group, Multicentric Trial</t>
   </si>
   <si>
+    <t>Effect of a 15-day Donepezil Treatment on Biomarkers of AD in Healthy Volunteers</t>
+  </si>
+  <si>
+    <t>Exploration of the Lipid Metabolism During the Diabetic Pregnancies and Research for New Biological Predictors to Nutritional Interventions</t>
+  </si>
+  <si>
+    <t>Evaluation of the Efficacy of Sildenafil on Time to Healing in Patients With Scleroderma and Ischaemic Digital Ulcers: a Prospective, Longitudinal, Randomized, Comparative, Double-blind, 2-parallel-arm, Placebo-controlled Study</t>
+  </si>
+  <si>
+    <t>A Phase I Dose Escalation Study of Clofarabine Given in Combination With Multi-agent Therapy for Remission Induction in Pediatric Patients With Acute Lymphoblastic Leukemia in First Relapse or Refractory to First Line Therapy -</t>
+  </si>
+  <si>
     <t>Efficacy of an Individual Rehabilitation Program in Polymyositis and Dermatomyositis</t>
   </si>
   <si>
-    <t>A Phase I Dose Escalation Study of Clofarabine Given in Combination With Multi-agent Therapy for Remission Induction in Pediatric Patients With Acute Lymphoblastic Leukemia in First Relapse or Refractory to First Line Therapy -</t>
-  </si>
-  <si>
-    <t>Exploration of the Lipid Metabolism During the Diabetic Pregnancies and Research for New Biological Predictors to Nutritional Interventions</t>
-  </si>
-  <si>
-    <t>Effect of a 15-day Donepezil Treatment on Biomarkers of AD in Healthy Volunteers</t>
-  </si>
-  <si>
     <t>Effect of Intraoperative Volume Optimization on Outcome After Intrabdominal Surgery: a Multicenter, Randomized, Double-blind, Comparative Study</t>
   </si>
   <si>
-    <t>Evaluation of the Efficacy of Sildenafil on Time to Healing in Patients With Scleroderma and Ischaemic Digital Ulcers: a Prospective, Longitudinal, Randomized, Comparative, Double-blind, 2-parallel-arm, Placebo-controlled Study</t>
+    <t>Effectiveness of a "Case Management Algorithm" After a Suicide Attempt in Terms of Repetition of the Suicidal Behaviors and Medico-economic Impact</t>
+  </si>
+  <si>
+    <t>Demonstration of the Effectiveness of Treatment by Therapeutic Body Wraps in Children and Adolescents Suffering From Autism Spectrum Disorder With Severe Injurious Behavior.</t>
+  </si>
+  <si>
+    <t>Red Blood Cells (RBC) Transfusion Related to Central Venous O2 Saturation</t>
+  </si>
+  <si>
+    <t>Relationship Between the ANI Score During Standardized Painful Stimulation and the Nociceptive Response to Laryngoscopy Intubation</t>
   </si>
   <si>
     <t>Respiratory Variations of the Inferior Vena Cava and Femoral Artery Flow to Predict Fluid Responsiveness in Spontaneously Breathing Patients With Sepsis, Acute Circulatory Failure, and Regular Cardiac Rhythm</t>
@@ -571,16 +649,25 @@
     <t>Impact of Mallinckrodt Electronic Device on Continuous Control of Tracheal Cuff Pressure</t>
   </si>
   <si>
-    <t>Demonstration of the Effectiveness of Treatment by Therapeutic Body Wraps in Children and Adolescents Suffering From Autism Spectrum Disorder With Severe Injurious Behavior.</t>
-  </si>
-  <si>
-    <t>Effectiveness of a "Case Management Algorithm" After a Suicide Attempt in Terms of Repetition of the Suicidal Behaviors and Medico-economic Impact</t>
-  </si>
-  <si>
-    <t>Relationship Between the ANI Score During Standardized Painful Stimulation and the Nociceptive Response to Laryngoscopy Intubation</t>
-  </si>
-  <si>
-    <t>Red Blood Cells (RBC) Transfusion Related to Central Venous O2 Saturation</t>
+    <t>Randomized Study Comparing Laparoscopic Sacropexy and Vaginal Mesh Surgery in Cystocele Repair</t>
+  </si>
+  <si>
+    <t>Impact of Tracheal Cuff Shape on Microaspiration in Intensive Care Units</t>
+  </si>
+  <si>
+    <t>Assess Whether Knowledge by the Children and Adolescents of the Function of the Accelerometer Determines Its Amount of Physical Activity</t>
+  </si>
+  <si>
+    <t>Comparison of MRI Sequences T1 and T2 * Cerebral Perfusion to Aid in the Diagnosis and Evaluation of Brain Therapeutic Response With Chemotherapy or Targeted Therapy(s) Lesion(s) in Patients Treated and Followed for a Pulmonary Neoplasia</t>
+  </si>
+  <si>
+    <t>A Multicenter Open Label Phase II Study of Pomalidomide and Dexamethasone in Progressive Relapsed or Refractory Multiple Myeloma Patients With Deletion 17p or Translocation (4;14) Adverse Karyotypic Abnormalities-IFM2010-02</t>
+  </si>
+  <si>
+    <t>A Multicenter Phase II Study of Ipilimumab Combined With a Stereotactic Radiosurgery in Melanoma Patients With Brain Metastases</t>
+  </si>
+  <si>
+    <t>Diagnostic Accuracy of the Inferior Vena Cava Collapsibility to Predict Fluid Responsiveness in Spontaneously Breathing Patients With Sepsis, Acute Circulatory Failure, and Irregular Cardiac Rhythm</t>
   </si>
   <si>
     <t>A Multicenter Randomized Open Label Phase II Study of Pomalidomide and Dexamethasone in Relapse and Refractory Multiple Myeloma Patients Who Are Progressive and Did Not Achieve at Least a Partial Response to Bortezomib and Lenalidomide</t>
@@ -592,278 +679,246 @@
     <t>Identification of New Markers in the Hypereosinophilic Syndrome</t>
   </si>
   <si>
-    <t>Diagnostic Accuracy of the Inferior Vena Cava Collapsibility to Predict Fluid Responsiveness in Spontaneously Breathing Patients With Sepsis, Acute Circulatory Failure, and Irregular Cardiac Rhythm</t>
-  </si>
-  <si>
-    <t>Comparison of MRI Sequences T1 and T2 * Cerebral Perfusion to Aid in the Diagnosis and Evaluation of Brain Therapeutic Response With Chemotherapy or Targeted Therapy(s) Lesion(s) in Patients Treated and Followed for a Pulmonary Neoplasia</t>
-  </si>
-  <si>
-    <t>Randomized Study Comparing Laparoscopic Sacropexy and Vaginal Mesh Surgery in Cystocele Repair</t>
-  </si>
-  <si>
-    <t>Impact of Tracheal Cuff Shape on Microaspiration in Intensive Care Units</t>
-  </si>
-  <si>
-    <t>A Multicenter Phase II Study of Ipilimumab Combined With a Stereotactic Radiosurgery in Melanoma Patients With Brain Metastases</t>
-  </si>
-  <si>
-    <t>A Multicenter Open Label Phase II Study of Pomalidomide and Dexamethasone in Progressive Relapsed or Refractory Multiple Myeloma Patients With Deletion 17p or Translocation (4;14) Adverse Karyotypic Abnormalities-IFM2010-02</t>
-  </si>
-  <si>
-    <t>Assess Whether Knowledge by the Children and Adolescents of the Function of the Accelerometer Determines Its Amount of Physical Activity</t>
-  </si>
-  <si>
     <t>Phase 2 Randomized Clinical Trial, Efficy of a Proprioceptive Stimulation Device in Term of Prevention of Muscle Atrophy of the Calf After Total Knee Replacement</t>
   </si>
   <si>
+    <t>Pilot Study for the Evaluation of a T-shirt "Balance" Containing Ceramic Fibers</t>
+  </si>
+  <si>
     <t>Interest of Treatment With Cranial Osteopathy in Functional Disorders of the Newborn</t>
   </si>
   <si>
+    <t>Effects of Premedication by Midazolam on Preoperative Anxiety for Emergency Surgery</t>
+  </si>
+  <si>
+    <t>Fungal Biomarkers to Reduce Duration of Empirical Antifungal Therapy: a Randomized Comparative Study</t>
+  </si>
+  <si>
+    <t>Impact of a One-month Long Detoxification Diazepam Treatment on Early Alcohol Relapse</t>
+  </si>
+  <si>
+    <t>Characterization of Factors Influencing the Occurrence of Cognitive Decline in Patients With Coronary Artery Disease and Undergoing Cardiac Surgery and Coronary Angioplasty</t>
+  </si>
+  <si>
     <t>Randomized Prospective Trial Evaluating the Efficacy of a Dedicated Therapeutic Education Program on the Blood Pressure and Other Cardiovascular Risk Factors Control in General Practice Patients at High Cardiovascular Risk</t>
   </si>
   <si>
+    <t>Prospective Evaluation of Adherence to Antimalarials in Patients With Systemic Lupus and Role of Therapeutic Education</t>
+  </si>
+  <si>
     <t>A Randomized Trial to Evaluate Freezed-dried Plasma in the Initial Management of Coagulopathy in Trauma Patients</t>
   </si>
   <si>
-    <t>Characterization of Factors Influencing the Occurrence of Cognitive Decline in Patients With Coronary Artery Disease and Undergoing Cardiac Surgery and Coronary Angioplasty</t>
-  </si>
-  <si>
-    <t>Impact of a One-month Long Detoxification Diazepam Treatment on Early Alcohol Relapse</t>
-  </si>
-  <si>
-    <t>Prospective Evaluation of Adherence to Antimalarials in Patients With Systemic Lupus and Role of Therapeutic Education</t>
-  </si>
-  <si>
-    <t>Effects of Premedication by Midazolam on Preoperative Anxiety for Emergency Surgery</t>
+    <t>Phase 2 Study of Islet Cell Transplantation in Patients With Type I Diabetes With Previous Kidney Transplantation With Steroid Free Immunosuppression</t>
   </si>
   <si>
     <t>Feasibility and Safety Pilot Therapeutic Study of the Iron Chelator Deferiprone in Amyotrophic Lateral Sclerosis</t>
   </si>
   <si>
-    <t>Pilot Study for the Evaluation of a T-shirt "Balance" Containing Ceramic Fibers</t>
-  </si>
-  <si>
-    <t>Phase 2 Study of Islet Cell Transplantation in Patients With Type I Diabetes With Previous Kidney Transplantation With Steroid Free Immunosuppression</t>
-  </si>
-  <si>
-    <t>Fungal Biomarkers to Reduce Duration of Empirical Antifungal Therapy: a Randomized Comparative Study</t>
-  </si>
-  <si>
-    <t>Efficacité et tolérance du nilotinib chez les patients atteints d'une maladie chronique du greffon contre l’hôte (Graft Versus Host, GVH) n'ayant pas répondu à l'imatinib mésilate.</t>
+    <t>Analgesic Efficacy of Transversus Abdominis Plane (TAP) Block After Lumbar Spine Surgery Through Anterior Approach (Anterior Lumbar or Direct Lateral Interbody Fusion): a Prospective, Randomized, Double-blind Placebo-controlled Study</t>
+  </si>
+  <si>
+    <t>Efficacy and Safety of Nilotinib in Patients With a Chronic Disease of the Graft Against the Host (Graft Versus Host, GVH) Did Not Respond to Imatinib Mesylate.</t>
+  </si>
+  <si>
+    <t>The Interest of the Xylocaine® and Ketamine on the Per and Postoperative Management of Acute and Chronic Postoperative Pain After Colectomy by Laparoscopy</t>
+  </si>
+  <si>
+    <t>Comparison of the Hemodynamic Effect Between the Paravertebral Block and Thoracic Epidural in Esophageal Surgery With Thoracotomy .</t>
+  </si>
+  <si>
+    <t>A Phase II Study Evaluating the Non-inferiority and Better Tolerability of the Device PHOS-ISTOS Compared to the Conventional Photodynamic Therapy (PDT)</t>
+  </si>
+  <si>
+    <t>Study of the Psychometric Properties of the Scale of Well-being at Work: The Serenat Study</t>
   </si>
   <si>
     <t>Influence of Variations of Systemic Venous Return on Analgesia Nociception Index (ANI) During General Anaesthesia</t>
   </si>
   <si>
-    <t>Comparison of the Hemodynamic Effect Between the Paravertebral Block and Thoracic Epidural in Esophageal Surgery With Thoracotomy .</t>
+    <t>Modulation of Lactase Expression by a New Synthetic PPARgamma Ligand in Ex-vivo Cultures of Duodenal Biopsies</t>
   </si>
   <si>
     <t>Morning / Afternoon Variation in Myocardial Ischemia Tolerance</t>
   </si>
   <si>
+    <t>Monitoring Analgesia by ANI (Analgesia The Nociception Index) During Surgery Inflammatory Bowel</t>
+  </si>
+  <si>
+    <t>A Multicenter Phase I/II Dose Escalation Study of Lenalidomide in Relapse/Refractory Waldenstrom Macroglobulinemia</t>
+  </si>
+  <si>
+    <t>Task-dependent Operation of a Mechanism Intracortical Inhibition in Dystonia</t>
+  </si>
+  <si>
+    <t>Sleep Apnea Syndrome in Obese Women During Pregnancy</t>
+  </si>
+  <si>
     <t>Chair Rise Tests for a Simplified Evaluation of Functional Response After a Rehabilitation Program in Patients COPD.</t>
   </si>
   <si>
-    <t>A Phase II Study Evaluating the Non-inferiority and Better Tolerability of the Device PHOS-ISTOS Compared to the Conventional Photodynamic Therapy (PDT)</t>
-  </si>
-  <si>
-    <t>Analgesic Efficacy of Transversus Abdominis Plane (TAP) Block After Lumbar Spine Surgery Through Anterior Approach (Anterior Lumbar or Direct Lateral Interbody Fusion): a Prospective, Randomized, Double-blind Placebo-controlled Study</t>
-  </si>
-  <si>
-    <t>The Interest of the Xylocaine® and Ketamine on the Per and Postoperative Management of Acute and Chronic Postoperative Pain After Colectomy by Laparoscopy</t>
+    <t>Assessment of Neuropsychiatric Involvement in Systemic Sclerosis.</t>
   </si>
   <si>
     <t>Partial Selective Depletion in Lymphocytes Transplant T CD4+ CCR7+ in Hematopoeitic Stem Cells Allograft</t>
   </si>
   <si>
-    <t>Task-dependent Operation of a Mechanism Intracortical Inhibition in Dystonia</t>
-  </si>
-  <si>
-    <t>Study of the Psychometric Properties of the Scale of Well-being at Work: The Serenat Study</t>
-  </si>
-  <si>
-    <t>Sleep Apnea Syndrome in Obese Women During Pregnancy</t>
-  </si>
-  <si>
-    <t>Modulation of Lactase Expression by a New Synthetic PPARgamma Ligand in Ex-vivo Cultures of Duodenal Biopsies</t>
-  </si>
-  <si>
-    <t>Assessment of Neuropsychiatric Involvement in Systemic Sclerosis.</t>
-  </si>
-  <si>
-    <t>A Multicenter Phase I/II Dose Escalation Study of Lenalidomide in Relapse/Refractory Waldenstrom Macroglobulinemia</t>
-  </si>
-  <si>
-    <t>Efficacy and Safety of Nilotinib in Patients With a Chronic Disease of the Graft Against the Host (Graft Versus Host, GVH) Did Not Respond to Imatinib Mesylate.</t>
-  </si>
-  <si>
-    <t>Monitoring Analgesia by ANI (Analgesia The Nociception Index) During Surgery Inflammatory Bowel</t>
+    <t>Assessment of the IgG Trough Level in Subjects With Primary Immunodeficiency Switching From Standard Subcutaneous Immunoglobulin (SCIG) to Every Other Week HyQvia</t>
+  </si>
+  <si>
+    <t>Pilot Study of the Feasibility of Intrapleural Photodynamic Therapy in a Multimodal Treatment Combining Extended Pleurectomy/Decortication, Adjuvant Chemotherapy and Prophylactic Radiotherapy in Patients With Malignant Pleural Mesothelioma</t>
+  </si>
+  <si>
+    <t>Frequency of Occurrence of Dumping Syndrome After Operation of Esophageal Atresia Type III</t>
+  </si>
+  <si>
+    <t>Randomized Controlled Trial Comparing Laparoscopic Sacropexy and Vaginal Mesh Surgery for Women Cystocele Repair: Functional and Anatomical Results at Four Years Follow-up</t>
+  </si>
+  <si>
+    <t>Preventive EXACYL® on Perioperative Bleeding During Orthognathism of Maxillary Surgery</t>
+  </si>
+  <si>
+    <t>Safety Study of P28GST Treatment in Crohn's Disease Patients, a Multicenter Phase 2 Clinical Trial</t>
   </si>
   <si>
     <t>Effectiveness of Two Stress Management Programs in the Adaptation Disorder With Anxiety (ADA) : Computer-based or Face- to -Face to Face Versus Control Group.Open Multicenter Prospective Randomized Controlled Therapeutic 3 Parallel Groups</t>
   </si>
   <si>
-    <t>Randomized Controlled Trial Comparing Laparoscopic Sacropexy and Vaginal Mesh Surgery for Women Cystocele Repair: Functional and Anatomical Results at Four Years Follow-up</t>
-  </si>
-  <si>
-    <t>Preventive EXACYL® on Perioperative Bleeding During Orthognathism of Maxillary Surgery</t>
-  </si>
-  <si>
-    <t>Assessment of the IgG Trough Level in Subjects With Primary Immunodeficiency Switching From Standard Subcutaneous Immunoglobulin (SCIG) to Every Other Week HyQvia</t>
-  </si>
-  <si>
-    <t>Frequency of Occurrence of Dumping Syndrome After Operation of Esophageal Atresia Type III</t>
-  </si>
-  <si>
-    <t>Safety Study of P28GST Treatment in Crohn's Disease Patients, a Multicenter Phase 2 Clinical Trial</t>
-  </si>
-  <si>
-    <t>Pilot Study of the Feasibility of Intrapleural Photodynamic Therapy in a Multimodal Treatment Combining Extended Pleurectomy/Decortication, Adjuvant Chemotherapy and Prophylactic Radiotherapy in Patients With Malignant Pleural Mesothelioma</t>
-  </si>
-  <si>
     <t>Validation of an Accelerated Procedure of Selection in Early Liver Transplantation for Severe Alcoholic Hepatitis Not Responding to Medical Treatment QuickTransHAA.</t>
   </si>
   <si>
+    <t>Detection of Usability Errors of a Medical Device Zeneo®</t>
+  </si>
+  <si>
+    <t>Evaluation of the Efficacy of an Antibiotic Combined With Standard Treatment in Severe Alcoholic Hepatitis</t>
+  </si>
+  <si>
     <t>Qualitative Study of the Impact of the Birth of a Child With a Rare Abdomino-thoracic Malformation on the Parental Adjustment of the First Year</t>
   </si>
   <si>
+    <t>Comparison of Haemodynamic Effects During Orotracheal Intubation, by Direct or Indirect Laryngoscopy With Airtraq, Controlled, Prospective, Randomized, Simple-blind, Monocentric Study at the Lille University Hospital Specialties Block.</t>
+  </si>
+  <si>
+    <t>Effect of Hyperbaric Oxygen Therapy on Healthy Volunteers Microcirculation</t>
+  </si>
+  <si>
+    <t>French Language Validation of the Phone Version of the Montreal Cognitive Assessment (MoCA)</t>
+  </si>
+  <si>
+    <t>Impact of Infiltration in the Region of the Palatine Ganglion Spheno by Ropivacaine on Postoperative Pain in the Setting of Endoscopic Sinonasal Surgery.</t>
+  </si>
+  <si>
+    <t>Effect of Monoclonal Anti-cd303 on the Inhibition of Type I Interferon Secretion in the Peripheral Blood of Patients With Autoimmune Diseases</t>
+  </si>
+  <si>
+    <t>Evaluation of the Expression of Natural Killer T Cells (NKT) Marker in the Gut of Patients With Primary Sclerosing Cholangitis (PSC) Complicated by an Inflammatory Bowel Disease (IBD)</t>
+  </si>
+  <si>
+    <t>Use of Biological Mesh Versus Standard Wound Care in Infected Incisional Ventral Hernias: a Multicenter Randomized Controlled Trial, the SIMBIOSE Study</t>
+  </si>
+  <si>
+    <t>Prognostic Value of Functional Exercise Test (EFX) in Cystic Fibrosis</t>
+  </si>
+  <si>
+    <t>Comparison of McGrath and Macintosh Laryngoscopes for Insertion of a Double Lumen Tube by Residents</t>
+  </si>
+  <si>
+    <t>First Episode of Anterior Glenohumeral Dislocation in Adult Patients Under 25 Years of Age: Anterior Capsulo-labral Reinsertion by Arthroscopic Approach Versus Immobilization "</t>
+  </si>
+  <si>
+    <t>Management of Pain Post Hepatectomy : Infiltration of Local Anesthetics Versus Continuous Spinal Analgesia .</t>
+  </si>
+  <si>
     <t>Perioperative Gabapentin for Chronic Post-thoracotomy Pain: a Randomized, Double Blind, Placebo-controlled Study.</t>
   </si>
   <si>
-    <t>Evaluation of the Expression of Natural Killer T Cells (NKT) Marker in the Gut of Patients With Primary Sclerosing Cholangitis (PSC) Complicated by an Inflammatory Bowel Disease (IBD)</t>
-  </si>
-  <si>
-    <t>Impact of Infiltration in the Region of the Palatine Ganglion Spheno by Ropivacaine on Postoperative Pain in the Setting of Endoscopic Sinonasal Surgery.</t>
-  </si>
-  <si>
-    <t>French Language Validation of the Phone Version of the Montreal Cognitive Assessment (MoCA)</t>
-  </si>
-  <si>
-    <t>Detection of Usability Errors of a Medical Device Zeneo®</t>
-  </si>
-  <si>
-    <t>Comparison of Haemodynamic Effects During Orotracheal Intubation, by Direct or Indirect Laryngoscopy With Airtraq, Controlled, Prospective, Randomized, Simple-blind, Monocentric Study at the Lille University Hospital Specialties Block.</t>
-  </si>
-  <si>
-    <t>Effect of Monoclonal Anti-cd303 on the Inhibition of Type I Interferon Secretion in the Peripheral Blood of Patients With Autoimmune Diseases</t>
-  </si>
-  <si>
-    <t>Management of Pain Post Hepatectomy : Infiltration of Local Anesthetics Versus Continuous Spinal Analgesia .</t>
-  </si>
-  <si>
-    <t>Comparison of McGrath and Macintosh Laryngoscopes for Insertion of a Double Lumen Tube by Residents</t>
-  </si>
-  <si>
-    <t>Prognostic Value of Functional Exercise Test (EFX) in Cystic Fibrosis</t>
-  </si>
-  <si>
-    <t>Effect of Hyperbaric Oxygen Therapy on Healthy Volunteers Microcirculation</t>
-  </si>
-  <si>
-    <t>Use of Biological Mesh Versus Standard Wound Care in Infected Incisional Ventral Hernias: a Multicenter Randomized Controlled Trial, the SIMBIOSE Study</t>
-  </si>
-  <si>
-    <t>First Episode of Anterior Glenohumeral Dislocation in Adult Patients Under 25 Years of Age: Anterior Capsulo-labral Reinsertion by Arthroscopic Approach Versus Immobilization "</t>
-  </si>
-  <si>
-    <t>Evaluation of the Efficacy of an Antibiotic Combined With Standard Treatment in Severe Alcoholic Hepatitis</t>
-  </si>
-  <si>
     <t>Impact of Muscular Fatigability on Spastic Co-contractions Between the Quadriceps and Hamstrings in Stroke Patients</t>
   </si>
   <si>
-    <t>Conservative iron chelation as a disease-modifying strategy in Parkinson’s disease 
- Chélation conservatrice du fer comme stratégie thérapeutique susceptible de ralentir la progression de la maladie de Parkinson</t>
+    <t>Stoke Volume Measurements During Changes in Cardiac Preload: Are Pulse Contour Analysis (CLEARSIGHT) and Transthoracic Bioelectrical Impedance (NICCOMO) Equivalent?</t>
+  </si>
+  <si>
+    <t>Prospective Randomized Study Evaluating the Effect of Pre-operative Hypnosis on Anesthesia, Analgesia and Perioperative Stress Laparoscopic Ileo-caecal Resections of Crohn's Disease.</t>
+  </si>
+  <si>
+    <t>Analgesic Efficacy of the Pectoral Nerve Block Type 1 for Breast Subpectoral Implant Surgery: A Randomized Controlled Study</t>
+  </si>
+  <si>
+    <t>Randomized, Single-blind Study of Remote Ischemic Preconditioning in Hepatectomies</t>
+  </si>
+  <si>
+    <t>Modulation of Oxidative Stress and Apoptosis of Energy Metabolism by Deferiprone From the Circulating Lymphocytes of Patients With Parkinson's Disease or Amyotrophic Lateral Sclerosis</t>
+  </si>
+  <si>
+    <t>Conservative Iron Chelation as a Disease-modifying Strategy in Parkinson's Disease. European Multicentre, Parallel-group, Placebo-controlled, Randomized Clinical Trial of Deferiprone"</t>
+  </si>
+  <si>
+    <t>Assessing the Impact of an Educational Personalized Clinical Support Device Preventive and a Referent Nurse in Surgery for Obesity With the Risk of Occurrence of Dumping Syndrome After Gastric Bypass.</t>
+  </si>
+  <si>
+    <t>Determinants of Patients' Uptake of Therapeutic Education Programme</t>
+  </si>
+  <si>
+    <t>A Multicenter Open Label Phase II Study of Daratumumab in Combination With Dexamethasone in Multiple Myeloma Resistant or Refractory to Bortezomib and Lenalidomide and Pomalidomide - an IFM 2014-04 Study</t>
   </si>
   <si>
     <t>Interscalene Block and Dysfunction Diaphragmatic: Effect of Low Volume of Ropivacaine 0,1%. A Randomised, Controlled Trial</t>
   </si>
   <si>
+    <t>Efficacy, Safety and Cost of Comprehensive Versus Standard Remote Monitoring of Patients With Cardiac Resynchronization Therapy</t>
+  </si>
+  <si>
+    <t>Continuous Non-invasive Cardiac Output, an Evaluation of ccNexfin© in a Pregnant Population</t>
+  </si>
+  <si>
+    <t>Phase II Study Evaluating the Interest of Vismodegib as Neo-adjuvant Treatment of Basal Cell Carcinoma (BCC)</t>
+  </si>
+  <si>
     <t>Results of Botulinum Toxin Injections for Cervical Dystonia : Benefits of Ultrasonography</t>
   </si>
   <si>
-    <t>Assessing the Impact of an Educational Personalized Clinical Support Device Preventive and a Referent Nurse in Surgery for Obesity With the Risk of Occurrence of Dumping Syndrome After Gastric Bypass.</t>
-  </si>
-  <si>
-    <t>Conservative Iron Chelation as a Disease-modifying Strategy in Parkinson's Disease. European Multicentre, Parallel-group, Placebo-controlled, Randomized Clinical Trial of Deferiprone"</t>
-  </si>
-  <si>
-    <t>Modulation of Oxidative Stress and Apoptosis of Energy Metabolism by Deferiprone From the Circulating Lymphocytes of Patients With Parkinson's Disease or Amyotrophic Lateral Sclerosis</t>
-  </si>
-  <si>
-    <t>Randomized, Single-blind Study of Remote Ischemic Preconditioning in Hepatectomies</t>
-  </si>
-  <si>
-    <t>Stoke Volume Measurements During Changes in Cardiac Preload: Are Pulse Contour Analysis (CLEARSIGHT) and Transthoracic Bioelectrical Impedance (NICCOMO) Equivalent?</t>
-  </si>
-  <si>
-    <t>A Multicenter Open Label Phase II Study of Daratumumab in Combination With Dexamethasone in Multiple Myeloma Resistant or Refractory to Bortezomib and Lenalidomide and Pomalidomide - an IFM 2014-04 Study</t>
-  </si>
-  <si>
-    <t>Analgesic Efficacy of the Pectoral Nerve Block Type 1 for Breast Subpectoral Implant Surgery: A Randomized Controlled Study</t>
-  </si>
-  <si>
-    <t>Prospective Randomized Study Evaluating the Effect of Pre-operative Hypnosis on Anesthesia, Analgesia and Perioperative Stress Laparoscopic Ileo-caecal Resections of Crohn's Disease.</t>
-  </si>
-  <si>
-    <t>Determinants of Patients' Uptake of Therapeutic Education Programme</t>
-  </si>
-  <si>
-    <t>Efficacy, Safety and Cost of Comprehensive Versus Standard Remote Monitoring of Patients With Cardiac Resynchronization Therapy</t>
-  </si>
-  <si>
-    <t>Phase II Study Evaluating the Interest of Vismodegib as Neo-adjuvant Treatment of Basal Cell Carcinoma (BCC)</t>
-  </si>
-  <si>
-    <t>Continuous Non-invasive Cardiac Output, an Evaluation of ccNexfin© in a Pregnant Population</t>
+    <t>Participation in Screening for Cervical Cancer: Interest of a Human Papillomavirus (HPV) Self-sampling Device Provided by the General Practitioner; a Cluster Randomized Clinical Trial</t>
+  </si>
+  <si>
+    <t>Benign Gynecologic Laparoscopic Surgery: Comparison of Conventional Trocars to the Teleflex® MiniLap® System in Length of Hospitalization, Pain and Aesthetics, a Randomized Study.</t>
   </si>
   <si>
     <t>Intraoperative Hemodynamic Optimization: Predictive Value to Fluid Respon-siveness of the Tidal Volume Challenge and the Lung Recruitment Maneuver by Monitoring the Variation of the Pulsed Pressure and the Variation of the Systolic Ejection Volume.</t>
   </si>
   <si>
-    <t>Benign Gynecologic Laparoscopic Surgery: Comparison of Conventional Trocars to the Teleflex® MiniLap® System in Length of Hospitalization, Pain and Aesthetics, a Randomized Study.</t>
+    <t>Evaluation of a Patient Prioritization Software for the Secondary Prioritization of Patients in the Pediatric Emergency Department</t>
+  </si>
+  <si>
+    <t>Cross Over Pilot Study for Evaluation of Pain Reduction in Patients With Chronic Low Back Pain (for More Than 3 Month) Using an Innovative Handheld Device</t>
   </si>
   <si>
     <t>Newborn Infant Parasympathetic Evaluation (NIPE) Index After Three Standardized Tetanic Stimulations (10, 30 and 60 Miliamps) Performed in a Randomized Sequence Under General Anesthesia in a Pediatric Population</t>
   </si>
   <si>
+    <t>Study of the Efficacy of the Treatment of Sleep Apnea Syndrome by CPAP in Pharmacoresistant Epilepsy</t>
+  </si>
+  <si>
     <t>Pressure Therapy in the Treatment of Upper Arm of Cerebral Palsy Children</t>
   </si>
   <si>
-    <t>Cross Over Pilot Study for Evaluation of Pain Reduction in Patients With Chronic Low Back Pain (for More Than 3 Month) Using an Innovative Handheld Device</t>
-  </si>
-  <si>
     <t>A Pilot Study of the Feasibility of Intraoperative Photodynamic Therapy of Glioblastoma.</t>
   </si>
   <si>
-    <t>Study of the Efficacy of the Treatment of Sleep Apnea Syndrome by CPAP in Pharmacoresistant Epilepsy</t>
-  </si>
-  <si>
-    <t>Participation in Screening for Cervical Cancer: Interest of a Human Papillomavirus (HPV) Self-sampling Device Provided by the General Practitioner; a Cluster Randomized Clinical Trial</t>
-  </si>
-  <si>
-    <t>Evaluation of a Patient Prioritization Software for the Secondary Prioritization of Patients in the Pediatric Emergency Department</t>
-  </si>
-  <si>
     <t>Development of a Real-time Signal Processing Algorithm, for Beat-beat Measurement of Fetal Heart Rate and Uterine Contractions by Coupling Non-invasive ABDOminal Sensors</t>
   </si>
   <si>
+    <t>Multimodal MRI-guided Repetitive Transcranial Magnetic Stimulation to Treat Drug-resistant Hallucinations: a Randomized Control Trial</t>
+  </si>
+  <si>
     <t>Automatic Remifentanil Administration Guided by the Analgesia Nociception Index During Propofol Anesthesia</t>
   </si>
   <si>
-    <t>Multimodal MRI-guided Repetitive Transcranial Magnetic Stimulation to Treat Drug-resistant Hallucinations: a Randomized Control Trial</t>
-  </si>
-  <si>
     <t>Impact of Controlling Vascular Risk Factors on the Progression of Alzheimer's Disease</t>
   </si>
   <si>
     <t>A New Concept of Continuous Dopaminergic Stimulation by Cerebroventricular Administration of A-dopamine (dopamine Stored in Anaerobia) for Severe Motor Fluctuations in Parkinson's Disease?</t>
   </si>
   <si>
-    <t>Assessment of the IgG trough level in subjects with primary immunodeficiency switching from standard subcutaneous immunoglobulin (SCIG) to every other week HyQvia  
- Évaluation du taux résiduel d’IgG chez des sujets atteints de déficit Immunitaire Primitif (DIP), après substitution d’injections sous-cutanées d’immunoglobuline standard (IGSC) par HyQvia administré toutes les deux semaines.</t>
-  </si>
-  <si>
     <t>Bilhvax1a</t>
   </si>
   <si>
@@ -879,43 +934,52 @@
     <t>FOGG-I</t>
   </si>
   <si>
+    <t>PREMEVA</t>
+  </si>
+  <si>
+    <t>CorpentoxHAA</t>
+  </si>
+  <si>
+    <t>FAIR-PARK-I</t>
+  </si>
+  <si>
+    <t>Nosten</t>
+  </si>
+  <si>
+    <t>PARGKAIT II</t>
+  </si>
+  <si>
     <t>PARKGAIT-II</t>
   </si>
   <si>
-    <t>PREMEVA</t>
-  </si>
-  <si>
-    <t>CorpentoxHAA</t>
-  </si>
-  <si>
-    <t>PARGKAIT II</t>
-  </si>
-  <si>
     <t>ANPATHY</t>
   </si>
   <si>
-    <t>Nosten</t>
-  </si>
-  <si>
-    <t>FAIR-PARK-I</t>
-  </si>
-  <si>
     <t>CHoPA-I</t>
   </si>
   <si>
+    <t>PharmacogWP3</t>
+  </si>
+  <si>
+    <t>DIAMANT</t>
+  </si>
+  <si>
+    <t>SEDUCE</t>
+  </si>
+  <si>
     <t>Vandevol</t>
   </si>
   <si>
-    <t>DIAMANT</t>
-  </si>
-  <si>
-    <t>PharmacogWP3</t>
-  </si>
-  <si>
     <t>EVOLUTION</t>
   </si>
   <si>
-    <t>SEDUCE</t>
+    <t>ALGOS</t>
+  </si>
+  <si>
+    <t>PACKING</t>
+  </si>
+  <si>
+    <t>ANI_LARYNGO</t>
   </si>
   <si>
     <t>ReVaPreF</t>
@@ -924,13 +988,25 @@
     <t>RCPBALSTAT</t>
   </si>
   <si>
-    <t>PACKING</t>
-  </si>
-  <si>
-    <t>ALGOS</t>
-  </si>
-  <si>
-    <t>ANI_LARYNGO</t>
+    <t>PROSPERE</t>
+  </si>
+  <si>
+    <t>BestCuff</t>
+  </si>
+  <si>
+    <t>ACCELORIX2</t>
+  </si>
+  <si>
+    <t>METAPERF</t>
+  </si>
+  <si>
+    <t>IFM2010-02</t>
+  </si>
+  <si>
+    <t>IPI+RTS</t>
+  </si>
+  <si>
+    <t>ReVaPreF2</t>
   </si>
   <si>
     <t>IFM2009-02</t>
@@ -939,266 +1015,239 @@
     <t>SHE</t>
   </si>
   <si>
-    <t>ReVaPreF2</t>
-  </si>
-  <si>
-    <t>METAPERF</t>
-  </si>
-  <si>
-    <t>PROSPERE</t>
-  </si>
-  <si>
-    <t>BestCuff</t>
-  </si>
-  <si>
-    <t>IPI+RTS</t>
-  </si>
-  <si>
-    <t>IFM2010-02</t>
-  </si>
-  <si>
-    <t>ACCELORIX2</t>
-  </si>
-  <si>
     <t>PrevAtrophy</t>
   </si>
   <si>
+    <t>Equi-tee-shirt</t>
+  </si>
+  <si>
+    <t>STAFE</t>
+  </si>
+  <si>
+    <t>DIAMA</t>
+  </si>
+  <si>
+    <t>COGCAR</t>
+  </si>
+  <si>
+    <t>ESSTIM</t>
+  </si>
+  <si>
     <t>TrauCC</t>
   </si>
   <si>
-    <t>COGCAR</t>
-  </si>
-  <si>
-    <t>DIAMA</t>
-  </si>
-  <si>
-    <t>ESSTIM</t>
-  </si>
-  <si>
     <t>SAFEFAIRALS</t>
   </si>
   <si>
-    <t>Equi-tee-shirt</t>
-  </si>
-  <si>
-    <t>STAFE</t>
-  </si>
-  <si>
-    <t>Double ITK-GVHc</t>
+    <t>TAP-LIF</t>
+  </si>
+  <si>
+    <t>DoubleITK</t>
+  </si>
+  <si>
+    <t>KETALIDO</t>
   </si>
   <si>
     <t>HEMOBLOC</t>
   </si>
   <si>
+    <t>PHOS-ISTOS</t>
+  </si>
+  <si>
+    <t>SERENAT</t>
+  </si>
+  <si>
     <t>TOMIS</t>
   </si>
   <si>
+    <t>ANI-MICI</t>
+  </si>
+  <si>
+    <t>RV-WM-0426</t>
+  </si>
+  <si>
+    <t>LICIdystonie</t>
+  </si>
+  <si>
     <t>3CRT</t>
   </si>
   <si>
-    <t>PHOS-ISTOS</t>
-  </si>
-  <si>
-    <t>TAP-LIF</t>
-  </si>
-  <si>
-    <t>KETALIDO</t>
+    <t>NeuroScS</t>
   </si>
   <si>
     <t>CCR7-CD4-DPL</t>
-  </si>
-  <si>
-    <t>LICIdystonie</t>
-  </si>
-  <si>
-    <t>SERENAT</t>
-  </si>
-  <si>
-    <t>NeuroScS</t>
-  </si>
-  <si>
-    <t>RV-WM-0426</t>
-  </si>
-  <si>
-    <t>DoubleITK</t>
-  </si>
-  <si>
-    <t>ANI-MICI</t>
-  </si>
-  <si>
-    <t>Seren@ctif</t>
-  </si>
-  <si>
-    <t>PROSPERE4</t>
-  </si>
-  <si>
-    <t>LEFORTEXACYL</t>
-  </si>
-  <si>
-    <t>DUMPING</t>
-  </si>
-  <si>
-    <t>ACROHNEM</t>
-  </si>
-  <si>
-    <t>MesoPDT</t>
-  </si>
-  <si>
-    <t>QuickTrans</t>
-  </si>
-  <si>
-    <t>INEMAT</t>
-  </si>
-  <si>
-    <t>GABATHOMIE</t>
-  </si>
-  <si>
-    <t>NKT-CSP/MICI</t>
-  </si>
-  <si>
-    <t>ROPI_POSTOP</t>
-  </si>
-  <si>
-    <t>MoCATEL</t>
-  </si>
-  <si>
-    <t>HEMODAIRTRAQ</t>
-  </si>
-  <si>
-    <t>ANTI-CD303</t>
-  </si>
-  <si>
-    <t>CATHEPAT</t>
-  </si>
-  <si>
-    <t>MacGrathDES</t>
-  </si>
-  <si>
-    <t>EFX</t>
-  </si>
-  <si>
-    <t>MICROHB</t>
-  </si>
-  <si>
-    <t>SIMBIOSE</t>
-  </si>
-  <si>
-    <t>BANKART</t>
-  </si>
-  <si>
-    <t>AntibioCor</t>
-  </si>
-  <si>
-    <t>COCON</t>
-  </si>
-  <si>
-    <t>FAIRPARK II</t>
-  </si>
-  <si>
-    <t>NUMEROBIS</t>
-  </si>
-  <si>
-    <t>RINOCERAUS</t>
-  </si>
-  <si>
-    <t>IRCO</t>
-  </si>
-  <si>
-    <t>FAIRPARKII</t>
-  </si>
-  <si>
-    <t>LymphoEnergy</t>
-  </si>
-  <si>
-    <t>HEPATOPROTECT</t>
-  </si>
-  <si>
-    <t>ConBi-Car</t>
-  </si>
-  <si>
-    <t>IFM2014-04</t>
-  </si>
-  <si>
-    <t>HYSTERIA</t>
-  </si>
-  <si>
-    <t>UTEP</t>
-  </si>
-  <si>
-    <t>ECOST-CRT</t>
-  </si>
-  <si>
-    <t>VISMONEO</t>
-  </si>
-  <si>
-    <t>CoNex</t>
-  </si>
-  <si>
-    <t>TIDALEC</t>
-  </si>
-  <si>
-    <t>MiniTroc</t>
-  </si>
-  <si>
-    <t>NIPESTIM</t>
-  </si>
-  <si>
-    <t>PROPENSIX</t>
-  </si>
-  <si>
-    <t>ATLAS</t>
-  </si>
-  <si>
-    <t>INDYGO</t>
-  </si>
-  <si>
-    <t>SASER</t>
-  </si>
-  <si>
-    <t>PaCUDAHL-Gé</t>
-  </si>
-  <si>
-    <t>OPTIMUM</t>
-  </si>
-  <si>
-    <t>RCF-ABDO</t>
-  </si>
-  <si>
-    <t>ANI-LOOP</t>
-  </si>
-  <si>
-    <t>MULTIMODHAL</t>
-  </si>
-  <si>
-    <t>COVARAD</t>
-  </si>
-  <si>
-    <t>DIVE</t>
   </si>
   <si>
     <t>HyQvia 
  HyQvia</t>
   </si>
   <si>
+    <t>MesoPDT</t>
+  </si>
+  <si>
+    <t>DUMPING</t>
+  </si>
+  <si>
+    <t>PROSPERE4</t>
+  </si>
+  <si>
+    <t>LEFORTEXACYL</t>
+  </si>
+  <si>
+    <t>ACROHNEM</t>
+  </si>
+  <si>
+    <t>Seren@ctif</t>
+  </si>
+  <si>
+    <t>QuickTrans</t>
+  </si>
+  <si>
+    <t>AntibioCor</t>
+  </si>
+  <si>
+    <t>INEMAT</t>
+  </si>
+  <si>
+    <t>HEMODAIRTRAQ</t>
+  </si>
+  <si>
+    <t>MICROHB</t>
+  </si>
+  <si>
+    <t>MoCATEL</t>
+  </si>
+  <si>
+    <t>ROPI_POSTOP</t>
+  </si>
+  <si>
+    <t>ANTI-CD303</t>
+  </si>
+  <si>
+    <t>NKT-CSP/MICI</t>
+  </si>
+  <si>
+    <t>SIMBIOSE</t>
+  </si>
+  <si>
+    <t>EFX</t>
+  </si>
+  <si>
+    <t>MacGrathDES</t>
+  </si>
+  <si>
+    <t>BANKART</t>
+  </si>
+  <si>
+    <t>CATHEPAT</t>
+  </si>
+  <si>
+    <t>GABATHOMIE</t>
+  </si>
+  <si>
+    <t>COCON</t>
+  </si>
+  <si>
+    <t>ConBi-Car</t>
+  </si>
+  <si>
+    <t>HYSTERIA</t>
+  </si>
+  <si>
+    <t>HEPATOPROTECT</t>
+  </si>
+  <si>
+    <t>LymphoEnergy</t>
+  </si>
+  <si>
+    <t>FAIRPARKII</t>
+  </si>
+  <si>
+    <t>IRCO</t>
+  </si>
+  <si>
+    <t>UTEP</t>
+  </si>
+  <si>
+    <t>IFM2014-04</t>
+  </si>
+  <si>
+    <t>NUMEROBIS</t>
+  </si>
+  <si>
+    <t>ECOST-CRT</t>
+  </si>
+  <si>
+    <t>CoNex</t>
+  </si>
+  <si>
+    <t>VISMONEO</t>
+  </si>
+  <si>
+    <t>RINOCERAUS</t>
+  </si>
+  <si>
+    <t>PaCUDAHL-Gé</t>
+  </si>
+  <si>
+    <t>MiniTroc</t>
+  </si>
+  <si>
+    <t>TIDALEC</t>
+  </si>
+  <si>
+    <t>OPTIMUM</t>
+  </si>
+  <si>
+    <t>ATLAS</t>
+  </si>
+  <si>
+    <t>NIPESTIM</t>
+  </si>
+  <si>
+    <t>SASER</t>
+  </si>
+  <si>
+    <t>PROPENSIX</t>
+  </si>
+  <si>
+    <t>INDYGO</t>
+  </si>
+  <si>
+    <t>RCF-ABDO</t>
+  </si>
+  <si>
+    <t>MULTIMODHAL</t>
+  </si>
+  <si>
+    <t>ANI-LOOP</t>
+  </si>
+  <si>
+    <t>COVARAD</t>
+  </si>
+  <si>
+    <t>DIVE</t>
+  </si>
+  <si>
     <t>BIOLOGICAL</t>
   </si>
   <si>
     <t>DRUG</t>
   </si>
   <si>
+    <t>OTHER</t>
+  </si>
+  <si>
     <t>PROCEDURE</t>
   </si>
   <si>
-    <t>OTHER</t>
-  </si>
-  <si>
     <t>DEVICE</t>
   </si>
   <si>
+    <t>DRUG (presumed)</t>
+  </si>
+  <si>
     <t>BEHAVIORAL</t>
-  </si>
-  <si>
-    <t>RADIATION</t>
   </si>
   <si>
     <t>DIAGNOSTIC_TEST</t>
@@ -1559,7 +1608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1605,16 +1654,16 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="G2" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="H2" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="I2" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1628,13 +1677,13 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G3" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="I3" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1648,16 +1697,16 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="G4" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="H4" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="I4" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1671,73 +1720,76 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="I5" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="G6" t="s">
-        <v>163</v>
+        <v>186</v>
+      </c>
+      <c r="H6" t="s">
+        <v>303</v>
       </c>
       <c r="I6" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="G7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H7" t="s">
-        <v>284</v>
+        <v>187</v>
       </c>
       <c r="I7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="G8" t="s">
-        <v>165</v>
+        <v>188</v>
+      </c>
+      <c r="H8" t="s">
+        <v>304</v>
       </c>
       <c r="I8" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1751,85 +1803,85 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="G9" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="H9" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="I9" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="G10" t="s">
-        <v>167</v>
-      </c>
-      <c r="H10" t="s">
-        <v>286</v>
+        <v>190</v>
       </c>
       <c r="I10" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="G11" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="H11" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="I11" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
+      <c r="D12" t="s">
+        <v>135</v>
+      </c>
       <c r="F12" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="G12" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="H12" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="I12" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1843,59 +1895,62 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="G13" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="H13" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="I13" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>135</v>
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="G14" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="H14" t="s">
-        <v>290</v>
+        <v>309</v>
+      </c>
+      <c r="I14" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>136</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="H15" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="I15" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1909,36 +1964,39 @@
         <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="G16" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="H16" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="I16" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>136</v>
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="G17" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="H17" t="s">
-        <v>289</v>
+        <v>312</v>
+      </c>
+      <c r="I17" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1949,85 +2007,91 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="H18" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="I18" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>137</v>
       </c>
       <c r="F19" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="H19" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="I19" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="G20" t="s">
-        <v>177</v>
+        <v>200</v>
+      </c>
+      <c r="H20" t="s">
+        <v>315</v>
       </c>
       <c r="I20" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="G21" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="H21" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="I21" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2038,42 +2102,39 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="G22" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="H22" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="I22" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="G23" t="s">
-        <v>180</v>
-      </c>
-      <c r="H23" t="s">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="I23" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2084,88 +2145,85 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="G24" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="H24" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="I24" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="G25" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="H25" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="I25" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="G26" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="H26" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="I26" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="G27" t="s">
-        <v>184</v>
-      </c>
-      <c r="H27" t="s">
-        <v>301</v>
+        <v>207</v>
       </c>
       <c r="I27" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2176,65 +2234,65 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="G28" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="H28" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="I28" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="G29" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="H29" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="I29" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="G30" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="H30" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="I30" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2245,59 +2303,65 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="G31" t="s">
-        <v>188</v>
+        <v>211</v>
+      </c>
+      <c r="H31" t="s">
+        <v>324</v>
       </c>
       <c r="I31" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="G32" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="H32" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="I32" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="G33" t="s">
-        <v>190</v>
+        <v>213</v>
+      </c>
+      <c r="H33" t="s">
+        <v>326</v>
       </c>
       <c r="I33" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2308,42 +2372,45 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="G34" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="H34" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="I34" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="D35" t="s">
+        <v>138</v>
       </c>
       <c r="F35" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="G35" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="H35" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="I35" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2354,19 +2421,22 @@
         <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>139</v>
       </c>
       <c r="F36" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="G36" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="H36" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="I36" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2377,111 +2447,111 @@
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F37" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="G37" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="H37" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="I37" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
+        <v>140</v>
       </c>
       <c r="F38" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="G38" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="H38" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="I38" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F39" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="G39" t="s">
-        <v>196</v>
-      </c>
-      <c r="H39" t="s">
-        <v>311</v>
+        <v>219</v>
       </c>
       <c r="I39" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="G40" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="H40" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="I40" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="G41" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="H41" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="I41" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2492,19 +2562,19 @@
         <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F42" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="G42" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="H42" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="I42" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2515,59 +2585,59 @@
         <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F43" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="G43" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="I43" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F44" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="G44" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="I44" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F45" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="G45" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="H45" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="I45" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2578,19 +2648,22 @@
         <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="D46" t="s">
+        <v>141</v>
       </c>
       <c r="F46" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="G46" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="H46" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="I46" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2601,19 +2674,19 @@
         <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F47" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="G47" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="H47" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="I47" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2624,39 +2697,39 @@
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F48" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="G48" t="s">
-        <v>205</v>
-      </c>
-      <c r="H48" t="s">
-        <v>318</v>
+        <v>228</v>
       </c>
       <c r="I48" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F49" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="G49" t="s">
-        <v>206</v>
+        <v>229</v>
+      </c>
+      <c r="H49" t="s">
+        <v>338</v>
       </c>
       <c r="I49" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2667,85 +2740,91 @@
         <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F50" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="G50" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="H50" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="I50" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F51" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="G51" t="s">
-        <v>208</v>
-      </c>
-      <c r="H51" t="s">
-        <v>320</v>
+        <v>231</v>
       </c>
       <c r="I51" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="D52" t="s">
+        <v>142</v>
       </c>
       <c r="F52" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="G52" t="s">
-        <v>209</v>
+        <v>232</v>
+      </c>
+      <c r="H52" t="s">
+        <v>340</v>
       </c>
       <c r="I52" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="D53" t="s">
+        <v>143</v>
       </c>
       <c r="F53" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="G53" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="H53" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="I53" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2755,17 +2834,23 @@
       <c r="B54" t="s">
         <v>14</v>
       </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
       <c r="D54" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F54" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="G54" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="H54" t="s">
-        <v>322</v>
+        <v>342</v>
+      </c>
+      <c r="I54" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2776,16 +2861,22 @@
         <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="D55" t="s">
+        <v>145</v>
       </c>
       <c r="F55" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="G55" t="s">
-        <v>212</v>
+        <v>235</v>
+      </c>
+      <c r="H55" t="s">
+        <v>343</v>
       </c>
       <c r="I55" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2796,42 +2887,45 @@
         <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="D56" t="s">
+        <v>146</v>
       </c>
       <c r="F56" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="G56" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="H56" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="I56" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F57" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="G57" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="H57" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="I57" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2842,42 +2936,39 @@
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F58" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="G58" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="H58" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="I58" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F59" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="G59" t="s">
-        <v>216</v>
-      </c>
-      <c r="H59" t="s">
-        <v>326</v>
+        <v>239</v>
       </c>
       <c r="I59" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2888,42 +2979,39 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F60" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="G60" t="s">
-        <v>217</v>
-      </c>
-      <c r="H60" t="s">
-        <v>327</v>
+        <v>240</v>
       </c>
       <c r="I60" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F61" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="G61" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="H61" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="I61" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2934,65 +3022,68 @@
         <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F62" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="G62" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="H62" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="I62" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="D63" t="s">
+        <v>147</v>
       </c>
       <c r="F63" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="G63" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="H63" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="I63" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F64" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="G64" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="H64" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="I64" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3003,36 +3094,39 @@
         <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F65" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="G65" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="I65" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F66" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="G66" t="s">
-        <v>223</v>
+        <v>246</v>
+      </c>
+      <c r="H66" t="s">
+        <v>351</v>
       </c>
       <c r="I66" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3043,42 +3137,42 @@
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F67" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="G67" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="H67" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="I67" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F68" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="G68" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="H68" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="I68" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3089,19 +3183,22 @@
         <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="D69" t="s">
+        <v>148</v>
       </c>
       <c r="F69" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="G69" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="H69" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="I69" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3112,42 +3209,45 @@
         <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="D70" t="s">
+        <v>149</v>
       </c>
       <c r="F70" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="G70" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="H70" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="I70" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F71" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="G71" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="H71" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="I71" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3158,19 +3258,19 @@
         <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F72" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="G72" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="H72" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="I72" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3181,62 +3281,71 @@
         <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="D73" t="s">
+        <v>150</v>
       </c>
       <c r="F73" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="G73" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="H73" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="I73" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="D74" t="s">
+        <v>151</v>
       </c>
       <c r="F74" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="G74" t="s">
-        <v>231</v>
+        <v>254</v>
+      </c>
+      <c r="H74" t="s">
+        <v>359</v>
       </c>
       <c r="I74" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F75" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="G75" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="H75" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="I75" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3247,19 +3356,19 @@
         <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F76" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="G76" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="H76" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="I76" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3270,42 +3379,42 @@
         <v>14</v>
       </c>
       <c r="C77" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="G77" t="s">
-        <v>234</v>
-      </c>
-      <c r="H77" t="s">
-        <v>341</v>
+        <v>257</v>
       </c>
       <c r="I77" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="D78" t="s">
+        <v>152</v>
       </c>
       <c r="F78" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="G78" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="H78" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="I78" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3316,19 +3425,19 @@
         <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F79" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="G79" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="H79" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="I79" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3339,19 +3448,19 @@
         <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F80" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="G80" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="H80" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="I80" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3362,65 +3471,68 @@
         <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F81" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="G81" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="H81" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="I81" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F82" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="G82" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="H82" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="I82" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="D83" t="s">
+        <v>153</v>
       </c>
       <c r="F83" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="G83" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="H83" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="I83" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3431,16 +3543,19 @@
         <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F84" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="G84" t="s">
-        <v>241</v>
+        <v>264</v>
+      </c>
+      <c r="H84" t="s">
+        <v>368</v>
       </c>
       <c r="I84" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3451,42 +3566,42 @@
         <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F85" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="G85" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="H85" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="I85" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F86" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="G86" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="H86" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="I86" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3497,19 +3612,19 @@
         <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F87" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="G87" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="H87" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="I87" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3520,42 +3635,42 @@
         <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F88" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="G88" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="H88" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="I88" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F89" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="G89" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="H89" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="I89" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3566,65 +3681,71 @@
         <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="D90" t="s">
+        <v>154</v>
       </c>
       <c r="F90" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="G90" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="H90" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="I90" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="D91" t="s">
+        <v>155</v>
       </c>
       <c r="F91" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="G91" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="H91" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="I91" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F92" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="G92" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="H92" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="I92" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3635,19 +3756,19 @@
         <v>14</v>
       </c>
       <c r="C93" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F93" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="G93" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="H93" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="I93" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3658,19 +3779,19 @@
         <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F94" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="G94" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="H94" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="I94" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3680,17 +3801,20 @@
       <c r="B95" t="s">
         <v>14</v>
       </c>
+      <c r="C95" t="s">
+        <v>109</v>
+      </c>
       <c r="D95" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F95" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="G95" t="s">
-        <v>252</v>
-      </c>
-      <c r="H95" t="s">
-        <v>358</v>
+        <v>275</v>
+      </c>
+      <c r="I95" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3701,19 +3825,19 @@
         <v>14</v>
       </c>
       <c r="C96" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F96" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="G96" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="H96" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="I96" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3724,65 +3848,68 @@
         <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F97" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="G97" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="H97" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="I97" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>109</v>
+        <v>112</v>
+      </c>
+      <c r="D98" t="s">
+        <v>157</v>
       </c>
       <c r="F98" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="G98" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="H98" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I98" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F99" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="G99" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="H99" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="I99" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3793,19 +3920,19 @@
         <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F100" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="G100" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="H100" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="I100" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3816,19 +3943,22 @@
         <v>14</v>
       </c>
       <c r="C101" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="D101" t="s">
+        <v>158</v>
       </c>
       <c r="F101" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="G101" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="H101" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="I101" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3839,19 +3969,22 @@
         <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>113</v>
+        <v>116</v>
+      </c>
+      <c r="D102" t="s">
+        <v>159</v>
       </c>
       <c r="F102" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="G102" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="H102" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="I102" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3862,39 +3995,42 @@
         <v>14</v>
       </c>
       <c r="C103" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F103" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="G103" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="H103" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="I103" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F104" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="G104" t="s">
-        <v>261</v>
+        <v>284</v>
+      </c>
+      <c r="H104" t="s">
+        <v>387</v>
       </c>
       <c r="I104" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3905,19 +4041,22 @@
         <v>14</v>
       </c>
       <c r="C105" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="D105" t="s">
+        <v>160</v>
       </c>
       <c r="F105" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="G105" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="H105" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="I105" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3928,42 +4067,42 @@
         <v>14</v>
       </c>
       <c r="C106" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F106" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="G106" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="H106" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="I106" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F107" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="G107" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="H107" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="I107" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3974,42 +4113,42 @@
         <v>14</v>
       </c>
       <c r="C108" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F108" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="G108" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="H108" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="I108" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C109" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F109" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="G109" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="H109" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="I109" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4020,19 +4159,19 @@
         <v>14</v>
       </c>
       <c r="C110" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F110" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="G110" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="H110" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="I110" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4043,19 +4182,19 @@
         <v>14</v>
       </c>
       <c r="C111" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F111" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="G111" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="H111" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="I111" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4066,65 +4205,65 @@
         <v>15</v>
       </c>
       <c r="C112" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F112" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="G112" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="H112" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="I112" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C113" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F113" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="G113" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="H113" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="I113" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C114" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F114" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="G114" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="H114" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="I114" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4135,19 +4274,22 @@
         <v>15</v>
       </c>
       <c r="C115" t="s">
-        <v>126</v>
+        <v>129</v>
+      </c>
+      <c r="D115" t="s">
+        <v>161</v>
       </c>
       <c r="F115" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="G115" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="H115" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="I115" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4158,19 +4300,19 @@
         <v>14</v>
       </c>
       <c r="C116" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F116" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="G116" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="H116" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="I116" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4181,19 +4323,19 @@
         <v>15</v>
       </c>
       <c r="C117" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F117" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="G117" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="H117" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="I117" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4204,19 +4346,19 @@
         <v>14</v>
       </c>
       <c r="C118" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F118" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="G118" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="H118" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="I118" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4227,19 +4369,19 @@
         <v>14</v>
       </c>
       <c r="C119" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F119" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="G119" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="H119" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="I119" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4250,108 +4392,25 @@
         <v>14</v>
       </c>
       <c r="C120" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="D120" t="s">
+        <v>162</v>
+      </c>
+      <c r="E120" t="s">
+        <v>163</v>
       </c>
       <c r="F120" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="G120" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="H120" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="I120" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="A121" t="s">
-        <v>11</v>
-      </c>
-      <c r="B121" t="s">
-        <v>15</v>
-      </c>
-      <c r="C121" t="s">
-        <v>132</v>
-      </c>
-      <c r="F121" t="s">
-        <v>158</v>
-      </c>
-      <c r="G121" t="s">
-        <v>278</v>
-      </c>
-      <c r="H121" t="s">
-        <v>383</v>
-      </c>
-      <c r="I121" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="A122" t="s">
-        <v>10</v>
-      </c>
-      <c r="B122" t="s">
-        <v>14</v>
-      </c>
-      <c r="C122" t="s">
-        <v>133</v>
-      </c>
-      <c r="F122" t="s">
-        <v>158</v>
-      </c>
-      <c r="G122" t="s">
-        <v>279</v>
-      </c>
-      <c r="H122" t="s">
-        <v>384</v>
-      </c>
-      <c r="I122" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" t="s">
-        <v>10</v>
-      </c>
-      <c r="B123" t="s">
-        <v>14</v>
-      </c>
-      <c r="C123" t="s">
-        <v>134</v>
-      </c>
-      <c r="E123" t="s">
-        <v>140</v>
-      </c>
-      <c r="F123" t="s">
-        <v>159</v>
-      </c>
-      <c r="G123" t="s">
-        <v>280</v>
-      </c>
-      <c r="H123" t="s">
-        <v>385</v>
-      </c>
-      <c r="I123" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" t="s">
-        <v>10</v>
-      </c>
-      <c r="B124" t="s">
-        <v>14</v>
-      </c>
-      <c r="D124" t="s">
-        <v>139</v>
-      </c>
-      <c r="G124" t="s">
-        <v>281</v>
-      </c>
-      <c r="H124" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
